--- a/doc/niveles/plano niveles.xlsx
+++ b/doc/niveles/plano niveles.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="41">
   <si>
     <t>Nivel 0</t>
   </si>
@@ -140,6 +140,15 @@
   <si>
     <t>0 – inicio</t>
   </si>
+  <si>
+    <t>oración + 1 reliquia</t>
+  </si>
+  <si>
+    <t>cruz + 2 reliquias</t>
+  </si>
+  <si>
+    <t>agua bendita + 3 reliquias</t>
+  </si>
 </sst>
 </file>
 
@@ -192,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -205,13 +214,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -597,74 +609,74 @@
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="F3" s="6">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="F3" s="7">
         <v>2</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="J3" s="6">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="J3" s="7">
         <v>3</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="N3" s="6">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="N3" s="7">
         <v>4</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="R3" s="6">
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="R3" s="7">
         <v>5</v>
       </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="V3" s="6">
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="V3" s="7">
         <v>6</v>
       </c>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Z3" s="6">
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Z3" s="7">
         <v>7</v>
       </c>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -723,7 +735,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
-      <c r="AD5" s="6">
+      <c r="AD5" s="7">
         <v>7</v>
       </c>
     </row>
@@ -754,7 +766,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
-      <c r="AD6" s="6"/>
+      <c r="AD6" s="7"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
@@ -783,7 +795,7 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="6"/>
+      <c r="AD7" s="7"/>
       <c r="AE7" t="s">
         <v>1</v>
       </c>
@@ -857,7 +869,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
-      <c r="AD9" s="6">
+      <c r="AD9" s="7">
         <v>6</v>
       </c>
       <c r="AM9" t="s">
@@ -875,7 +887,7 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
-      <c r="AD10" s="6"/>
+      <c r="AD10" s="7"/>
       <c r="AM10" t="s">
         <v>6</v>
       </c>
@@ -895,7 +907,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="6"/>
+      <c r="AD11" s="7"/>
       <c r="AE11" t="s">
         <v>1</v>
       </c>
@@ -971,7 +983,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
-      <c r="AD13" s="6">
+      <c r="AD13" s="7">
         <v>5</v>
       </c>
       <c r="AM13" t="s">
@@ -1000,7 +1012,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
-      <c r="AD14" s="6"/>
+      <c r="AD14" s="7"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
@@ -1020,7 +1032,7 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
-      <c r="AD15" s="6"/>
+      <c r="AD15" s="7"/>
       <c r="AE15" t="s">
         <v>1</v>
       </c>
@@ -1093,7 +1105,7 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
-      <c r="AD17" s="6">
+      <c r="AD17" s="7">
         <v>4</v>
       </c>
     </row>
@@ -1121,7 +1133,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
-      <c r="AD18" s="6"/>
+      <c r="AD18" s="7"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
@@ -1144,7 +1156,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
-      <c r="AD19" s="6"/>
+      <c r="AD19" s="7"/>
       <c r="AE19" t="s">
         <v>1</v>
       </c>
@@ -1216,7 +1228,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
-      <c r="AD21" s="6">
+      <c r="AD21" s="7">
         <v>3</v>
       </c>
     </row>
@@ -1241,7 +1253,7 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
-      <c r="AD22" s="6"/>
+      <c r="AD22" s="7"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
@@ -1264,7 +1276,7 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
-      <c r="AD23" s="6"/>
+      <c r="AD23" s="7"/>
       <c r="AE23" t="s">
         <v>1</v>
       </c>
@@ -1330,7 +1342,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
-      <c r="AD25" s="6">
+      <c r="AD25" s="7">
         <v>2</v>
       </c>
     </row>
@@ -1345,7 +1357,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
-      <c r="AD26" s="6"/>
+      <c r="AD26" s="7"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
@@ -1362,7 +1374,7 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
-      <c r="AD27" s="6"/>
+      <c r="AD27" s="7"/>
       <c r="AE27" t="s">
         <v>1</v>
       </c>
@@ -1442,7 +1454,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
-      <c r="AD29" s="6">
+      <c r="AD29" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1473,7 +1485,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
-      <c r="AD30" s="6"/>
+      <c r="AD30" s="7"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
@@ -1502,7 +1514,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
-      <c r="AD31" s="6"/>
+      <c r="AD31" s="7"/>
       <c r="AE31" t="s">
         <v>1</v>
       </c>
@@ -1556,74 +1568,74 @@
       <c r="AC32" s="2"/>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B34" s="6">
-        <v>1</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="F34" s="6">
+      <c r="B34" s="7">
+        <v>1</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="F34" s="7">
         <v>2</v>
       </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="J34" s="6">
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="J34" s="7">
         <v>3</v>
       </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="N34" s="6">
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="N34" s="7">
         <v>4</v>
       </c>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="R34" s="6">
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="R34" s="7">
         <v>5</v>
       </c>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="V34" s="6">
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="V34" s="7">
         <v>6</v>
       </c>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Z34" s="6">
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Z34" s="7">
         <v>7</v>
       </c>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="6"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
@@ -1682,7 +1694,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
-      <c r="AD36" s="6">
+      <c r="AD36" s="7">
         <v>7</v>
       </c>
     </row>
@@ -1713,7 +1725,7 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
-      <c r="AD37" s="6"/>
+      <c r="AD37" s="7"/>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
@@ -1742,7 +1754,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
-      <c r="AD38" s="6"/>
+      <c r="AD38" s="7"/>
       <c r="AE38" s="3" t="s">
         <v>1</v>
       </c>
@@ -1816,7 +1828,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
-      <c r="AD40" s="6">
+      <c r="AD40" s="7">
         <v>6</v>
       </c>
       <c r="AM40" t="s">
@@ -1837,7 +1849,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
-      <c r="AD41" s="6"/>
+      <c r="AD41" s="7"/>
       <c r="AM41" t="s">
         <v>6</v>
       </c>
@@ -1857,7 +1869,7 @@
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
-      <c r="AD42" s="6"/>
+      <c r="AD42" s="7"/>
       <c r="AE42" t="s">
         <v>1</v>
       </c>
@@ -1933,7 +1945,7 @@
       <c r="U44" s="2"/>
       <c r="Y44" s="2"/>
       <c r="AC44" s="2"/>
-      <c r="AD44" s="6">
+      <c r="AD44" s="7">
         <v>5</v>
       </c>
       <c r="AM44" t="s">
@@ -1962,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="AC45" s="2"/>
-      <c r="AD45" s="6"/>
+      <c r="AD45" s="7"/>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
@@ -1982,7 +1994,7 @@
       <c r="U46" s="2"/>
       <c r="Y46" s="2"/>
       <c r="AC46" s="2"/>
-      <c r="AD46" s="6"/>
+      <c r="AD46" s="7"/>
       <c r="AE46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2055,7 +2067,7 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
-      <c r="AD48" s="6">
+      <c r="AD48" s="7">
         <v>4</v>
       </c>
     </row>
@@ -2083,7 +2095,7 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
-      <c r="AD49" s="6"/>
+      <c r="AD49" s="7"/>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
@@ -2106,7 +2118,7 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
-      <c r="AD50" s="6"/>
+      <c r="AD50" s="7"/>
       <c r="AE50" t="s">
         <v>1</v>
       </c>
@@ -2172,7 +2184,7 @@
       <c r="U52" s="2"/>
       <c r="Y52" s="2"/>
       <c r="AC52" s="2"/>
-      <c r="AD52" s="6">
+      <c r="AD52" s="7">
         <v>3</v>
       </c>
     </row>
@@ -2192,7 +2204,7 @@
         <v>3</v>
       </c>
       <c r="AC53" s="2"/>
-      <c r="AD53" s="6"/>
+      <c r="AD53" s="7"/>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
@@ -2209,7 +2221,7 @@
       <c r="U54" s="2"/>
       <c r="Y54" s="2"/>
       <c r="AC54" s="2"/>
-      <c r="AD54" s="6"/>
+      <c r="AD54" s="7"/>
       <c r="AE54" t="s">
         <v>16</v>
       </c>
@@ -2275,7 +2287,7 @@
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
       <c r="AC56" s="2"/>
-      <c r="AD56" s="6">
+      <c r="AD56" s="7">
         <v>2</v>
       </c>
     </row>
@@ -2290,7 +2302,7 @@
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
-      <c r="AD57" s="6"/>
+      <c r="AD57" s="7"/>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
@@ -2310,7 +2322,7 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
-      <c r="AD58" s="6"/>
+      <c r="AD58" s="7"/>
       <c r="AE58" t="s">
         <v>1</v>
       </c>
@@ -2390,7 +2402,7 @@
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
-      <c r="AD60" s="6">
+      <c r="AD60" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2421,7 +2433,7 @@
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
-      <c r="AD61" s="6"/>
+      <c r="AD61" s="7"/>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
@@ -2450,7 +2462,7 @@
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
-      <c r="AD62" s="6"/>
+      <c r="AD62" s="7"/>
       <c r="AE62" t="s">
         <v>1</v>
       </c>
@@ -2504,74 +2516,74 @@
       <c r="AC63" s="2"/>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="7"/>
-      <c r="T64" s="7"/>
-      <c r="U64" s="7"/>
-      <c r="V64" s="7"/>
-      <c r="W64" s="7"/>
-      <c r="X64" s="7"/>
-      <c r="Y64" s="7"/>
-      <c r="Z64" s="7"/>
-      <c r="AA64" s="7"/>
-      <c r="AB64" s="7"/>
-      <c r="AC64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="8"/>
+      <c r="AA64" s="8"/>
+      <c r="AB64" s="8"/>
+      <c r="AC64" s="8"/>
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B65" s="6">
-        <v>1</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="F65" s="6">
+      <c r="B65" s="7">
+        <v>1</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="F65" s="7">
         <v>2</v>
       </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="J65" s="6">
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="J65" s="7">
         <v>3</v>
       </c>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="N65" s="6">
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="N65" s="7">
         <v>4</v>
       </c>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="R65" s="6">
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="R65" s="7">
         <v>5</v>
       </c>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
-      <c r="V65" s="6">
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="V65" s="7">
         <v>6</v>
       </c>
-      <c r="W65" s="6"/>
-      <c r="X65" s="6"/>
-      <c r="Z65" s="6">
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Z65" s="7">
         <v>7</v>
       </c>
-      <c r="AA65" s="6"/>
-      <c r="AB65" s="6"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
@@ -2630,7 +2642,7 @@
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
-      <c r="AD67" s="6">
+      <c r="AD67" s="7">
         <v>7</v>
       </c>
     </row>
@@ -2661,7 +2673,7 @@
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
-      <c r="AD68" s="6"/>
+      <c r="AD68" s="7"/>
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
@@ -2690,7 +2702,7 @@
       <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
-      <c r="AD69" s="6"/>
+      <c r="AD69" s="7"/>
       <c r="AE69" s="3" t="s">
         <v>1</v>
       </c>
@@ -2767,7 +2779,7 @@
       <c r="AA71" s="2"/>
       <c r="AB71" s="2"/>
       <c r="AC71" s="2"/>
-      <c r="AD71" s="6">
+      <c r="AD71" s="7">
         <v>6</v>
       </c>
       <c r="AM71" t="s">
@@ -2795,7 +2807,7 @@
       <c r="AA72" s="2"/>
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
-      <c r="AD72" s="6"/>
+      <c r="AD72" s="7"/>
       <c r="AM72" t="s">
         <v>6</v>
       </c>
@@ -2818,7 +2830,7 @@
       <c r="AA73" s="2"/>
       <c r="AB73" s="2"/>
       <c r="AC73" s="2"/>
-      <c r="AD73" s="6"/>
+      <c r="AD73" s="7"/>
       <c r="AE73" t="s">
         <v>16</v>
       </c>
@@ -2897,7 +2909,7 @@
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
       <c r="AC75" s="2"/>
-      <c r="AD75" s="6">
+      <c r="AD75" s="7">
         <v>5</v>
       </c>
       <c r="AM75" t="s">
@@ -2925,7 +2937,7 @@
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
       <c r="AC76" s="2"/>
-      <c r="AD76" s="6"/>
+      <c r="AD76" s="7"/>
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
@@ -2948,7 +2960,7 @@
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
       <c r="AC77" s="2"/>
-      <c r="AD77" s="6"/>
+      <c r="AD77" s="7"/>
       <c r="AE77" t="s">
         <v>1</v>
       </c>
@@ -3014,7 +3026,7 @@
       <c r="U79" s="2"/>
       <c r="Y79" s="2"/>
       <c r="AC79" s="2"/>
-      <c r="AD79" s="6">
+      <c r="AD79" s="7">
         <v>4</v>
       </c>
     </row>
@@ -3036,7 +3048,7 @@
         <v>4</v>
       </c>
       <c r="AC80" s="2"/>
-      <c r="AD80" s="6"/>
+      <c r="AD80" s="7"/>
     </row>
     <row r="81" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
@@ -3053,7 +3065,7 @@
       <c r="U81" s="2"/>
       <c r="Y81" s="2"/>
       <c r="AC81" s="2"/>
-      <c r="AD81" s="6"/>
+      <c r="AD81" s="7"/>
       <c r="AE81" t="s">
         <v>1</v>
       </c>
@@ -3125,7 +3137,7 @@
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
       <c r="AC83" s="2"/>
-      <c r="AD83" s="6">
+      <c r="AD83" s="7">
         <v>3</v>
       </c>
     </row>
@@ -3153,7 +3165,7 @@
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
       <c r="AC84" s="2"/>
-      <c r="AD84" s="6"/>
+      <c r="AD84" s="7"/>
     </row>
     <row r="85" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
@@ -3176,7 +3188,7 @@
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
       <c r="AC85" s="2"/>
-      <c r="AD85" s="6"/>
+      <c r="AD85" s="7"/>
       <c r="AE85" t="s">
         <v>1</v>
       </c>
@@ -3239,7 +3251,7 @@
       <c r="U87" s="2"/>
       <c r="Y87" s="2"/>
       <c r="AC87" s="2"/>
-      <c r="AD87" s="6">
+      <c r="AD87" s="7">
         <v>2</v>
       </c>
     </row>
@@ -3253,7 +3265,7 @@
         <v>5</v>
       </c>
       <c r="AC88" s="2"/>
-      <c r="AD88" s="6"/>
+      <c r="AD88" s="7"/>
     </row>
     <row r="89" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
@@ -3267,7 +3279,7 @@
       <c r="U89" s="2"/>
       <c r="Y89" s="2"/>
       <c r="AC89" s="2"/>
-      <c r="AD89" s="6"/>
+      <c r="AD89" s="7"/>
       <c r="AE89" t="s">
         <v>1</v>
       </c>
@@ -3347,7 +3359,7 @@
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
       <c r="AC91" s="2"/>
-      <c r="AD91" s="6">
+      <c r="AD91" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3378,7 +3390,7 @@
       <c r="AA92" s="2"/>
       <c r="AB92" s="2"/>
       <c r="AC92" s="2"/>
-      <c r="AD92" s="6"/>
+      <c r="AD92" s="7"/>
     </row>
     <row r="93" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
@@ -3407,7 +3419,7 @@
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
       <c r="AC93" s="2"/>
-      <c r="AD93" s="6"/>
+      <c r="AD93" s="7"/>
       <c r="AE93" s="3" t="s">
         <v>1</v>
       </c>
@@ -3461,37 +3473,37 @@
       <c r="AC94" s="2"/>
     </row>
     <row r="95" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
-      <c r="S95" s="7"/>
-      <c r="T95" s="7"/>
-      <c r="U95" s="7"/>
-      <c r="V95" s="7"/>
-      <c r="W95" s="7"/>
-      <c r="X95" s="7"/>
-      <c r="Y95" s="7"/>
-      <c r="Z95" s="7"/>
-      <c r="AA95" s="7"/>
-      <c r="AB95" s="7"/>
-      <c r="AC95" s="7"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="8"/>
+      <c r="O95" s="8"/>
+      <c r="P95" s="8"/>
+      <c r="Q95" s="8"/>
+      <c r="R95" s="8"/>
+      <c r="S95" s="8"/>
+      <c r="T95" s="8"/>
+      <c r="U95" s="8"/>
+      <c r="V95" s="8"/>
+      <c r="W95" s="8"/>
+      <c r="X95" s="8"/>
+      <c r="Y95" s="8"/>
+      <c r="Z95" s="8"/>
+      <c r="AA95" s="8"/>
+      <c r="AB95" s="8"/>
+      <c r="AC95" s="8"/>
       <c r="AM95" s="1">
         <v>1</v>
       </c>
@@ -3582,72 +3594,72 @@
       <c r="BP95" s="1"/>
     </row>
     <row r="96" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="B96" s="6">
-        <v>1</v>
-      </c>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="F96" s="6">
+      <c r="B96" s="7">
+        <v>1</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="F96" s="7">
         <v>2</v>
       </c>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="J96" s="6">
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="J96" s="7">
         <v>3</v>
       </c>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="N96" s="6">
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="N96" s="7">
         <v>4</v>
       </c>
-      <c r="O96" s="6"/>
-      <c r="P96" s="6"/>
-      <c r="R96" s="6">
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="R96" s="7">
         <v>5</v>
       </c>
-      <c r="S96" s="6"/>
-      <c r="T96" s="6"/>
-      <c r="V96" s="6">
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="V96" s="7">
         <v>6</v>
       </c>
-      <c r="W96" s="6"/>
-      <c r="X96" s="6"/>
-      <c r="Z96" s="6">
+      <c r="W96" s="7"/>
+      <c r="X96" s="7"/>
+      <c r="Z96" s="7">
         <v>7</v>
       </c>
-      <c r="AA96" s="6"/>
-      <c r="AB96" s="6"/>
-      <c r="AM96" s="7" t="s">
+      <c r="AA96" s="7"/>
+      <c r="AB96" s="7"/>
+      <c r="AM96" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="AN96" s="7"/>
-      <c r="AO96" s="7"/>
-      <c r="AP96" s="7"/>
-      <c r="AQ96" s="7"/>
-      <c r="AR96" s="7"/>
-      <c r="AS96" s="7"/>
-      <c r="AT96" s="7"/>
-      <c r="AU96" s="7"/>
-      <c r="AV96" s="7"/>
-      <c r="AW96" s="7"/>
-      <c r="AX96" s="7"/>
-      <c r="AY96" s="7"/>
-      <c r="AZ96" s="7"/>
-      <c r="BA96" s="7"/>
-      <c r="BB96" s="7"/>
-      <c r="BC96" s="7"/>
-      <c r="BD96" s="7"/>
-      <c r="BE96" s="7"/>
-      <c r="BF96" s="7"/>
-      <c r="BG96" s="7"/>
-      <c r="BH96" s="7"/>
-      <c r="BI96" s="7"/>
-      <c r="BJ96" s="7"/>
-      <c r="BK96" s="7"/>
-      <c r="BL96" s="7"/>
-      <c r="BM96" s="7"/>
-      <c r="BN96" s="7"/>
-      <c r="BO96" s="7"/>
+      <c r="AN96" s="8"/>
+      <c r="AO96" s="8"/>
+      <c r="AP96" s="8"/>
+      <c r="AQ96" s="8"/>
+      <c r="AR96" s="8"/>
+      <c r="AS96" s="8"/>
+      <c r="AT96" s="8"/>
+      <c r="AU96" s="8"/>
+      <c r="AV96" s="8"/>
+      <c r="AW96" s="8"/>
+      <c r="AX96" s="8"/>
+      <c r="AY96" s="8"/>
+      <c r="AZ96" s="8"/>
+      <c r="BA96" s="8"/>
+      <c r="BB96" s="8"/>
+      <c r="BC96" s="8"/>
+      <c r="BD96" s="8"/>
+      <c r="BE96" s="8"/>
+      <c r="BF96" s="8"/>
+      <c r="BG96" s="8"/>
+      <c r="BH96" s="8"/>
+      <c r="BI96" s="8"/>
+      <c r="BJ96" s="8"/>
+      <c r="BK96" s="8"/>
+      <c r="BL96" s="8"/>
+      <c r="BM96" s="8"/>
+      <c r="BN96" s="8"/>
+      <c r="BO96" s="8"/>
       <c r="BP96" s="1"/>
     </row>
     <row r="97" spans="1:77" x14ac:dyDescent="0.2">
@@ -3680,47 +3692,47 @@
       <c r="AB97" s="2"/>
       <c r="AC97" s="2"/>
       <c r="AM97" s="1"/>
-      <c r="AN97" s="6">
-        <v>1</v>
-      </c>
-      <c r="AO97" s="6"/>
-      <c r="AP97" s="6"/>
+      <c r="AN97" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO97" s="7"/>
+      <c r="AP97" s="7"/>
       <c r="AQ97" s="1"/>
-      <c r="AR97" s="6">
+      <c r="AR97" s="7">
         <v>2</v>
       </c>
-      <c r="AS97" s="6"/>
-      <c r="AT97" s="6"/>
+      <c r="AS97" s="7"/>
+      <c r="AT97" s="7"/>
       <c r="AU97" s="1"/>
-      <c r="AV97" s="6">
+      <c r="AV97" s="7">
         <v>3</v>
       </c>
-      <c r="AW97" s="6"/>
-      <c r="AX97" s="6"/>
+      <c r="AW97" s="7"/>
+      <c r="AX97" s="7"/>
       <c r="AY97" s="1"/>
-      <c r="AZ97" s="6">
+      <c r="AZ97" s="7">
         <v>4</v>
       </c>
-      <c r="BA97" s="6"/>
-      <c r="BB97" s="6"/>
+      <c r="BA97" s="7"/>
+      <c r="BB97" s="7"/>
       <c r="BC97" s="1"/>
-      <c r="BD97" s="6">
+      <c r="BD97" s="7">
         <v>5</v>
       </c>
-      <c r="BE97" s="6"/>
-      <c r="BF97" s="6"/>
+      <c r="BE97" s="7"/>
+      <c r="BF97" s="7"/>
       <c r="BG97" s="1"/>
-      <c r="BH97" s="6">
+      <c r="BH97" s="7">
         <v>6</v>
       </c>
-      <c r="BI97" s="6"/>
-      <c r="BJ97" s="6"/>
+      <c r="BI97" s="7"/>
+      <c r="BJ97" s="7"/>
       <c r="BK97" s="1"/>
-      <c r="BL97" s="6">
+      <c r="BL97" s="7">
         <v>7</v>
       </c>
-      <c r="BM97" s="6"/>
-      <c r="BN97" s="6"/>
+      <c r="BM97" s="7"/>
+      <c r="BN97" s="7"/>
       <c r="BO97" s="1"/>
       <c r="BP97" s="1"/>
     </row>
@@ -3751,7 +3763,7 @@
       <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
       <c r="AC98" s="2"/>
-      <c r="AD98" s="6">
+      <c r="AD98" s="7">
         <v>7</v>
       </c>
       <c r="AM98" s="2"/>
@@ -3812,7 +3824,7 @@
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
       <c r="AC99" s="2"/>
-      <c r="AD99" s="6"/>
+      <c r="AD99" s="7"/>
       <c r="AE99" s="3"/>
       <c r="AF99" s="3"/>
       <c r="AG99" s="3"/>
@@ -3849,7 +3861,7 @@
       <c r="BM99" s="2"/>
       <c r="BN99" s="2"/>
       <c r="BO99" s="2"/>
-      <c r="BP99" s="6">
+      <c r="BP99" s="7">
         <v>7</v>
       </c>
     </row>
@@ -3880,7 +3892,7 @@
       <c r="AA100" s="2"/>
       <c r="AB100" s="2"/>
       <c r="AC100" s="2"/>
-      <c r="AD100" s="6"/>
+      <c r="AD100" s="7"/>
       <c r="AE100" s="3" t="s">
         <v>1</v>
       </c>
@@ -3931,7 +3943,7 @@
       <c r="BM100" s="2"/>
       <c r="BN100" s="2"/>
       <c r="BO100" s="2"/>
-      <c r="BP100" s="6"/>
+      <c r="BP100" s="7"/>
     </row>
     <row r="101" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
@@ -3991,7 +4003,7 @@
       <c r="BM101" s="2"/>
       <c r="BN101" s="2"/>
       <c r="BO101" s="2"/>
-      <c r="BP101" s="6"/>
+      <c r="BP101" s="7"/>
       <c r="BQ101" t="s">
         <v>1</v>
       </c>
@@ -4032,7 +4044,7 @@
       <c r="AA102" s="2"/>
       <c r="AB102" s="2"/>
       <c r="AC102" s="2"/>
-      <c r="AD102" s="6">
+      <c r="AD102" s="7">
         <v>6</v>
       </c>
       <c r="AM102" s="2"/>
@@ -4089,7 +4101,7 @@
       <c r="AA103" s="2"/>
       <c r="AB103" s="2"/>
       <c r="AC103" s="2"/>
-      <c r="AD103" s="6"/>
+      <c r="AD103" s="7"/>
       <c r="AM103" s="2"/>
       <c r="AN103" s="2"/>
       <c r="AO103" s="2"/>
@@ -4119,7 +4131,7 @@
       <c r="BM103" s="2"/>
       <c r="BN103" s="2"/>
       <c r="BO103" s="2"/>
-      <c r="BP103" s="6">
+      <c r="BP103" s="7">
         <v>6</v>
       </c>
       <c r="BY103" t="s">
@@ -4141,7 +4153,7 @@
       <c r="AA104" s="2"/>
       <c r="AB104" s="2"/>
       <c r="AC104" s="2"/>
-      <c r="AD104" s="6"/>
+      <c r="AD104" s="7"/>
       <c r="AE104" t="s">
         <v>1</v>
       </c>
@@ -4192,7 +4204,7 @@
       <c r="BM104" s="2"/>
       <c r="BN104" s="2"/>
       <c r="BO104" s="2"/>
-      <c r="BP104" s="6"/>
+      <c r="BP104" s="7"/>
       <c r="BY104" t="s">
         <v>6</v>
       </c>
@@ -4254,7 +4266,7 @@
       <c r="BM105" s="2"/>
       <c r="BN105" s="2"/>
       <c r="BO105" s="2"/>
-      <c r="BP105" s="6"/>
+      <c r="BP105" s="7"/>
       <c r="BQ105" t="s">
         <v>1</v>
       </c>
@@ -4298,7 +4310,7 @@
       <c r="U106" s="2"/>
       <c r="Y106" s="2"/>
       <c r="AC106" s="2"/>
-      <c r="AD106" s="6">
+      <c r="AD106" s="7">
         <v>5</v>
       </c>
       <c r="AM106" s="2"/>
@@ -4354,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="AC107" s="2"/>
-      <c r="AD107" s="6"/>
+      <c r="AD107" s="7"/>
       <c r="AM107" s="2"/>
       <c r="AN107" s="2"/>
       <c r="AO107" s="2"/>
@@ -4384,7 +4396,7 @@
       <c r="BM107" s="2"/>
       <c r="BN107" s="2"/>
       <c r="BO107" s="2"/>
-      <c r="BP107" s="6">
+      <c r="BP107" s="7">
         <v>5</v>
       </c>
       <c r="BY107" t="s">
@@ -4409,7 +4421,7 @@
       <c r="U108" s="2"/>
       <c r="Y108" s="2"/>
       <c r="AC108" s="2"/>
-      <c r="AD108" s="6"/>
+      <c r="AD108" s="7"/>
       <c r="AE108" s="3" t="s">
         <v>16</v>
       </c>
@@ -4464,7 +4476,7 @@
       <c r="BM108" s="2"/>
       <c r="BN108" s="2"/>
       <c r="BO108" s="2"/>
-      <c r="BP108" s="6"/>
+      <c r="BP108" s="7"/>
     </row>
     <row r="109" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
@@ -4523,7 +4535,7 @@
       <c r="BM109" s="2"/>
       <c r="BN109" s="2"/>
       <c r="BO109" s="2"/>
-      <c r="BP109" s="6"/>
+      <c r="BP109" s="7"/>
       <c r="BQ109" t="s">
         <v>1</v>
       </c>
@@ -4567,7 +4579,7 @@
       <c r="AA110" s="2"/>
       <c r="AB110" s="2"/>
       <c r="AC110" s="2"/>
-      <c r="AD110" s="6">
+      <c r="AD110" s="7">
         <v>4</v>
       </c>
       <c r="AM110" s="2"/>
@@ -4625,7 +4637,7 @@
       <c r="AA111" s="2"/>
       <c r="AB111" s="2"/>
       <c r="AC111" s="2"/>
-      <c r="AD111" s="6"/>
+      <c r="AD111" s="7"/>
       <c r="AM111" s="2"/>
       <c r="AN111" s="2"/>
       <c r="AO111" s="2"/>
@@ -4655,7 +4667,7 @@
       <c r="BM111" s="2"/>
       <c r="BN111" s="2"/>
       <c r="BO111" s="2"/>
-      <c r="BP111" s="6">
+      <c r="BP111" s="7">
         <v>4</v>
       </c>
     </row>
@@ -4681,7 +4693,7 @@
       <c r="AA112" s="2"/>
       <c r="AB112" s="2"/>
       <c r="AC112" s="2"/>
-      <c r="AD112" s="6"/>
+      <c r="AD112" s="7"/>
       <c r="AE112" t="s">
         <v>1</v>
       </c>
@@ -4734,7 +4746,7 @@
       <c r="BM112" s="2"/>
       <c r="BN112" s="2"/>
       <c r="BO112" s="2"/>
-      <c r="BP112" s="6"/>
+      <c r="BP112" s="7"/>
     </row>
     <row r="113" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
@@ -4792,7 +4804,7 @@
       <c r="BM113" s="2"/>
       <c r="BN113" s="2"/>
       <c r="BO113" s="2"/>
-      <c r="BP113" s="6"/>
+      <c r="BP113" s="7"/>
       <c r="BQ113" t="s">
         <v>1</v>
       </c>
@@ -4830,7 +4842,7 @@
       <c r="U114" s="2"/>
       <c r="Y114" s="2"/>
       <c r="AC114" s="2"/>
-      <c r="AD114" s="6">
+      <c r="AD114" s="7">
         <v>3</v>
       </c>
       <c r="AM114" s="2"/>
@@ -4880,7 +4892,7 @@
       <c r="T115" s="2"/>
       <c r="U115" s="2"/>
       <c r="AC115" s="2"/>
-      <c r="AD115" s="6"/>
+      <c r="AD115" s="7"/>
       <c r="AM115" s="2"/>
       <c r="AN115" s="2"/>
       <c r="AO115" s="2"/>
@@ -4910,7 +4922,7 @@
       <c r="BM115" s="2"/>
       <c r="BN115" s="2"/>
       <c r="BO115" s="2"/>
-      <c r="BP115" s="6">
+      <c r="BP115" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4929,7 +4941,7 @@
       <c r="U116" s="2"/>
       <c r="Y116" s="2"/>
       <c r="AC116" s="2"/>
-      <c r="AD116" s="6"/>
+      <c r="AD116" s="7"/>
       <c r="AE116" t="s">
         <v>16</v>
       </c>
@@ -4980,7 +4992,7 @@
       <c r="BM116" s="2"/>
       <c r="BN116" s="2"/>
       <c r="BO116" s="2"/>
-      <c r="BP116" s="6"/>
+      <c r="BP116" s="7"/>
     </row>
     <row r="117" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
@@ -5038,7 +5050,7 @@
       <c r="BM117" s="2"/>
       <c r="BN117" s="2"/>
       <c r="BO117" s="2"/>
-      <c r="BP117" s="6"/>
+      <c r="BP117" s="7"/>
       <c r="BQ117" t="s">
         <v>1</v>
       </c>
@@ -5076,7 +5088,7 @@
       <c r="AA118" s="2"/>
       <c r="AB118" s="2"/>
       <c r="AC118" s="2"/>
-      <c r="AD118" s="6">
+      <c r="AD118" s="7">
         <v>2</v>
       </c>
       <c r="AM118" s="2"/>
@@ -5127,7 +5139,7 @@
       <c r="AA119" s="2"/>
       <c r="AB119" s="2"/>
       <c r="AC119" s="2"/>
-      <c r="AD119" s="6"/>
+      <c r="AD119" s="7"/>
       <c r="AM119" s="2"/>
       <c r="AN119" s="2"/>
       <c r="AO119" s="2"/>
@@ -5157,7 +5169,7 @@
       <c r="BM119" s="2"/>
       <c r="BN119" s="2"/>
       <c r="BO119" s="2"/>
-      <c r="BP119" s="6">
+      <c r="BP119" s="7">
         <v>2</v>
       </c>
     </row>
@@ -5176,7 +5188,7 @@
       <c r="AA120" s="2"/>
       <c r="AB120" s="2"/>
       <c r="AC120" s="2"/>
-      <c r="AD120" s="6"/>
+      <c r="AD120" s="7"/>
       <c r="AE120" t="s">
         <v>1</v>
       </c>
@@ -5227,7 +5239,7 @@
       <c r="BM120" s="2"/>
       <c r="BN120" s="2"/>
       <c r="BO120" s="2"/>
-      <c r="BP120" s="6"/>
+      <c r="BP120" s="7"/>
     </row>
     <row r="121" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
@@ -5287,7 +5299,7 @@
       <c r="BM121" s="2"/>
       <c r="BN121" s="2"/>
       <c r="BO121" s="2"/>
-      <c r="BP121" s="6"/>
+      <c r="BP121" s="7"/>
       <c r="BQ121" t="s">
         <v>1</v>
       </c>
@@ -5337,7 +5349,7 @@
       <c r="AA122" s="2"/>
       <c r="AB122" s="2"/>
       <c r="AC122" s="2"/>
-      <c r="AD122" s="6">
+      <c r="AD122" s="7">
         <v>1</v>
       </c>
       <c r="AM122" s="2"/>
@@ -5398,7 +5410,7 @@
       <c r="AA123" s="2"/>
       <c r="AB123" s="2"/>
       <c r="AC123" s="2"/>
-      <c r="AD123" s="6"/>
+      <c r="AD123" s="7"/>
       <c r="AM123" s="2"/>
       <c r="AN123" s="2"/>
       <c r="AO123" s="2"/>
@@ -5428,7 +5440,7 @@
       <c r="BM123" s="2"/>
       <c r="BN123" s="2"/>
       <c r="BO123" s="2"/>
-      <c r="BP123" s="6">
+      <c r="BP123" s="7">
         <v>1</v>
       </c>
     </row>
@@ -5459,7 +5471,7 @@
       <c r="AA124" s="2"/>
       <c r="AB124" s="2"/>
       <c r="AC124" s="2"/>
-      <c r="AD124" s="6"/>
+      <c r="AD124" s="7"/>
       <c r="AE124" t="s">
         <v>1</v>
       </c>
@@ -5510,7 +5522,7 @@
       <c r="BM124" s="2"/>
       <c r="BN124" s="2"/>
       <c r="BO124" s="2"/>
-      <c r="BP124" s="6"/>
+      <c r="BP124" s="7"/>
     </row>
     <row r="125" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
@@ -5570,7 +5582,7 @@
       <c r="BM125" s="2"/>
       <c r="BN125" s="2"/>
       <c r="BO125" s="2"/>
-      <c r="BP125" s="6"/>
+      <c r="BP125" s="7"/>
       <c r="BQ125" t="s">
         <v>1</v>
       </c>
@@ -5594,37 +5606,37 @@
       </c>
     </row>
     <row r="126" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
-      <c r="I126" s="7"/>
-      <c r="J126" s="7"/>
-      <c r="K126" s="7"/>
-      <c r="L126" s="7"/>
-      <c r="M126" s="7"/>
-      <c r="N126" s="7"/>
-      <c r="O126" s="7"/>
-      <c r="P126" s="7"/>
-      <c r="Q126" s="7"/>
-      <c r="R126" s="7"/>
-      <c r="S126" s="7"/>
-      <c r="T126" s="7"/>
-      <c r="U126" s="7"/>
-      <c r="V126" s="7"/>
-      <c r="W126" s="7"/>
-      <c r="X126" s="7"/>
-      <c r="Y126" s="7"/>
-      <c r="Z126" s="7"/>
-      <c r="AA126" s="7"/>
-      <c r="AB126" s="7"/>
-      <c r="AC126" s="7"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="8"/>
+      <c r="L126" s="8"/>
+      <c r="M126" s="8"/>
+      <c r="N126" s="8"/>
+      <c r="O126" s="8"/>
+      <c r="P126" s="8"/>
+      <c r="Q126" s="8"/>
+      <c r="R126" s="8"/>
+      <c r="S126" s="8"/>
+      <c r="T126" s="8"/>
+      <c r="U126" s="8"/>
+      <c r="V126" s="8"/>
+      <c r="W126" s="8"/>
+      <c r="X126" s="8"/>
+      <c r="Y126" s="8"/>
+      <c r="Z126" s="8"/>
+      <c r="AA126" s="8"/>
+      <c r="AB126" s="8"/>
+      <c r="AC126" s="8"/>
       <c r="AM126" s="2"/>
       <c r="AN126" s="2"/>
       <c r="AO126" s="2"/>
@@ -5657,72 +5669,72 @@
       <c r="BP126" s="1"/>
     </row>
     <row r="127" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B127" s="6">
-        <v>1</v>
-      </c>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="F127" s="6">
+      <c r="B127" s="7">
+        <v>1</v>
+      </c>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="F127" s="7">
         <v>2</v>
       </c>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-      <c r="J127" s="6">
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="J127" s="7">
         <v>3</v>
       </c>
-      <c r="K127" s="6"/>
-      <c r="L127" s="6"/>
-      <c r="N127" s="6">
+      <c r="K127" s="7"/>
+      <c r="L127" s="7"/>
+      <c r="N127" s="7">
         <v>4</v>
       </c>
-      <c r="O127" s="6"/>
-      <c r="P127" s="6"/>
-      <c r="R127" s="6">
+      <c r="O127" s="7"/>
+      <c r="P127" s="7"/>
+      <c r="R127" s="7">
         <v>5</v>
       </c>
-      <c r="S127" s="6"/>
-      <c r="T127" s="6"/>
-      <c r="V127" s="6">
+      <c r="S127" s="7"/>
+      <c r="T127" s="7"/>
+      <c r="V127" s="7">
         <v>6</v>
       </c>
-      <c r="W127" s="6"/>
-      <c r="X127" s="6"/>
-      <c r="Z127" s="6">
+      <c r="W127" s="7"/>
+      <c r="X127" s="7"/>
+      <c r="Z127" s="7">
         <v>7</v>
       </c>
-      <c r="AA127" s="6"/>
-      <c r="AB127" s="6"/>
-      <c r="AM127" s="7" t="s">
+      <c r="AA127" s="7"/>
+      <c r="AB127" s="7"/>
+      <c r="AM127" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AN127" s="7"/>
-      <c r="AO127" s="7"/>
-      <c r="AP127" s="7"/>
-      <c r="AQ127" s="7"/>
-      <c r="AR127" s="7"/>
-      <c r="AS127" s="7"/>
-      <c r="AT127" s="7"/>
-      <c r="AU127" s="7"/>
-      <c r="AV127" s="7"/>
-      <c r="AW127" s="7"/>
-      <c r="AX127" s="7"/>
-      <c r="AY127" s="7"/>
-      <c r="AZ127" s="7"/>
-      <c r="BA127" s="7"/>
-      <c r="BB127" s="7"/>
-      <c r="BC127" s="7"/>
-      <c r="BD127" s="7"/>
-      <c r="BE127" s="7"/>
-      <c r="BF127" s="7"/>
-      <c r="BG127" s="7"/>
-      <c r="BH127" s="7"/>
-      <c r="BI127" s="7"/>
-      <c r="BJ127" s="7"/>
-      <c r="BK127" s="7"/>
-      <c r="BL127" s="7"/>
-      <c r="BM127" s="7"/>
-      <c r="BN127" s="7"/>
-      <c r="BO127" s="7"/>
+      <c r="AN127" s="8"/>
+      <c r="AO127" s="8"/>
+      <c r="AP127" s="8"/>
+      <c r="AQ127" s="8"/>
+      <c r="AR127" s="8"/>
+      <c r="AS127" s="8"/>
+      <c r="AT127" s="8"/>
+      <c r="AU127" s="8"/>
+      <c r="AV127" s="8"/>
+      <c r="AW127" s="8"/>
+      <c r="AX127" s="8"/>
+      <c r="AY127" s="8"/>
+      <c r="AZ127" s="8"/>
+      <c r="BA127" s="8"/>
+      <c r="BB127" s="8"/>
+      <c r="BC127" s="8"/>
+      <c r="BD127" s="8"/>
+      <c r="BE127" s="8"/>
+      <c r="BF127" s="8"/>
+      <c r="BG127" s="8"/>
+      <c r="BH127" s="8"/>
+      <c r="BI127" s="8"/>
+      <c r="BJ127" s="8"/>
+      <c r="BK127" s="8"/>
+      <c r="BL127" s="8"/>
+      <c r="BM127" s="8"/>
+      <c r="BN127" s="8"/>
+      <c r="BO127" s="8"/>
       <c r="BP127" s="1"/>
     </row>
     <row r="128" spans="1:75" x14ac:dyDescent="0.2">
@@ -5755,47 +5767,47 @@
       <c r="AB128" s="2"/>
       <c r="AC128" s="2"/>
       <c r="AM128" s="1"/>
-      <c r="AN128" s="6">
-        <v>1</v>
-      </c>
-      <c r="AO128" s="6"/>
-      <c r="AP128" s="6"/>
+      <c r="AN128" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO128" s="7"/>
+      <c r="AP128" s="7"/>
       <c r="AQ128" s="1"/>
-      <c r="AR128" s="6">
+      <c r="AR128" s="7">
         <v>2</v>
       </c>
-      <c r="AS128" s="6"/>
-      <c r="AT128" s="6"/>
+      <c r="AS128" s="7"/>
+      <c r="AT128" s="7"/>
       <c r="AU128" s="1"/>
-      <c r="AV128" s="6">
+      <c r="AV128" s="7">
         <v>3</v>
       </c>
-      <c r="AW128" s="6"/>
-      <c r="AX128" s="6"/>
+      <c r="AW128" s="7"/>
+      <c r="AX128" s="7"/>
       <c r="AY128" s="1"/>
-      <c r="AZ128" s="6">
+      <c r="AZ128" s="7">
         <v>4</v>
       </c>
-      <c r="BA128" s="6"/>
-      <c r="BB128" s="6"/>
+      <c r="BA128" s="7"/>
+      <c r="BB128" s="7"/>
       <c r="BC128" s="1"/>
-      <c r="BD128" s="6">
+      <c r="BD128" s="7">
         <v>5</v>
       </c>
-      <c r="BE128" s="6"/>
-      <c r="BF128" s="6"/>
+      <c r="BE128" s="7"/>
+      <c r="BF128" s="7"/>
       <c r="BG128" s="1"/>
-      <c r="BH128" s="6">
+      <c r="BH128" s="7">
         <v>6</v>
       </c>
-      <c r="BI128" s="6"/>
-      <c r="BJ128" s="6"/>
+      <c r="BI128" s="7"/>
+      <c r="BJ128" s="7"/>
       <c r="BK128" s="1"/>
-      <c r="BL128" s="6">
+      <c r="BL128" s="7">
         <v>7</v>
       </c>
-      <c r="BM128" s="6"/>
-      <c r="BN128" s="6"/>
+      <c r="BM128" s="7"/>
+      <c r="BN128" s="7"/>
       <c r="BO128" s="1"/>
       <c r="BP128" s="1"/>
     </row>
@@ -5826,7 +5838,7 @@
       <c r="AA129" s="2"/>
       <c r="AB129" s="2"/>
       <c r="AC129" s="2"/>
-      <c r="AD129" s="6">
+      <c r="AD129" s="7">
         <v>7</v>
       </c>
       <c r="AM129" s="2"/>
@@ -5887,7 +5899,7 @@
       <c r="AA130" s="2"/>
       <c r="AB130" s="2"/>
       <c r="AC130" s="2"/>
-      <c r="AD130" s="6"/>
+      <c r="AD130" s="7"/>
       <c r="AM130" s="2"/>
       <c r="AN130" s="2"/>
       <c r="AO130" s="2"/>
@@ -5917,7 +5929,7 @@
       <c r="BM130" s="2"/>
       <c r="BN130" s="2"/>
       <c r="BO130" s="2"/>
-      <c r="BP130" s="6">
+      <c r="BP130" s="7">
         <v>7</v>
       </c>
     </row>
@@ -5948,7 +5960,7 @@
       <c r="AA131" s="2"/>
       <c r="AB131" s="2"/>
       <c r="AC131" s="2"/>
-      <c r="AD131" s="6"/>
+      <c r="AD131" s="7"/>
       <c r="AE131" s="3" t="s">
         <v>1</v>
       </c>
@@ -5999,7 +6011,7 @@
       <c r="BM131" s="2"/>
       <c r="BN131" s="2"/>
       <c r="BO131" s="2"/>
-      <c r="BP131" s="6"/>
+      <c r="BP131" s="7"/>
     </row>
     <row r="132" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
@@ -6059,7 +6071,7 @@
       <c r="BM132" s="2"/>
       <c r="BN132" s="2"/>
       <c r="BO132" s="2"/>
-      <c r="BP132" s="6"/>
+      <c r="BP132" s="7"/>
       <c r="BQ132" s="3" t="s">
         <v>1</v>
       </c>
@@ -6103,7 +6115,7 @@
       <c r="U133" s="2"/>
       <c r="Y133" s="2"/>
       <c r="AC133" s="2"/>
-      <c r="AD133" s="6">
+      <c r="AD133" s="7">
         <v>6</v>
       </c>
       <c r="AM133" s="2"/>
@@ -6161,7 +6173,7 @@
         <v>7</v>
       </c>
       <c r="AC134" s="2"/>
-      <c r="AD134" s="6"/>
+      <c r="AD134" s="7"/>
       <c r="AM134" s="2"/>
       <c r="AN134" s="2"/>
       <c r="AO134" s="2"/>
@@ -6191,7 +6203,7 @@
       <c r="BM134" s="2"/>
       <c r="BN134" s="2"/>
       <c r="BO134" s="2"/>
-      <c r="BP134" s="6">
+      <c r="BP134" s="7">
         <v>6</v>
       </c>
       <c r="BY134" t="s">
@@ -6216,7 +6228,7 @@
       <c r="U135" s="2"/>
       <c r="Y135" s="2"/>
       <c r="AC135" s="2"/>
-      <c r="AD135" s="6"/>
+      <c r="AD135" s="7"/>
       <c r="AE135" t="s">
         <v>1</v>
       </c>
@@ -6269,7 +6281,7 @@
       <c r="BM135" s="2"/>
       <c r="BN135" s="2"/>
       <c r="BO135" s="2"/>
-      <c r="BP135" s="6"/>
+      <c r="BP135" s="7"/>
       <c r="BY135" t="s">
         <v>6</v>
       </c>
@@ -6331,7 +6343,7 @@
       <c r="BM136" s="2"/>
       <c r="BN136" s="2"/>
       <c r="BO136" s="2"/>
-      <c r="BP136" s="6"/>
+      <c r="BP136" s="7"/>
       <c r="BQ136" t="s">
         <v>1</v>
       </c>
@@ -6378,7 +6390,7 @@
       <c r="AA137" s="2"/>
       <c r="AB137" s="2"/>
       <c r="AC137" s="2"/>
-      <c r="AD137" s="6">
+      <c r="AD137" s="7">
         <v>5</v>
       </c>
       <c r="AM137" s="2"/>
@@ -6439,7 +6451,7 @@
       <c r="AA138" s="2"/>
       <c r="AB138" s="2"/>
       <c r="AC138" s="2"/>
-      <c r="AD138" s="6"/>
+      <c r="AD138" s="7"/>
       <c r="AM138" s="2"/>
       <c r="AN138" s="1"/>
       <c r="AO138" s="1"/>
@@ -6469,7 +6481,7 @@
       <c r="BM138" s="1"/>
       <c r="BN138" s="1"/>
       <c r="BO138" s="2"/>
-      <c r="BP138" s="6">
+      <c r="BP138" s="7">
         <v>5</v>
       </c>
       <c r="BY138" t="s">
@@ -6497,7 +6509,7 @@
       <c r="AA139" s="2"/>
       <c r="AB139" s="2"/>
       <c r="AC139" s="2"/>
-      <c r="AD139" s="6"/>
+      <c r="AD139" s="7"/>
       <c r="AE139" t="s">
         <v>18</v>
       </c>
@@ -6552,7 +6564,7 @@
       </c>
       <c r="BN139" s="1"/>
       <c r="BO139" s="2"/>
-      <c r="BP139" s="6"/>
+      <c r="BP139" s="7"/>
     </row>
     <row r="140" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
@@ -6610,7 +6622,7 @@
       <c r="BM140" s="1"/>
       <c r="BN140" s="1"/>
       <c r="BO140" s="2"/>
-      <c r="BP140" s="6"/>
+      <c r="BP140" s="7"/>
       <c r="BQ140" s="3" t="s">
         <v>16</v>
       </c>
@@ -6651,7 +6663,7 @@
       <c r="AA141" s="2"/>
       <c r="AB141" s="2"/>
       <c r="AC141" s="2"/>
-      <c r="AD141" s="6">
+      <c r="AD141" s="7">
         <v>4</v>
       </c>
       <c r="AM141" s="2"/>
@@ -6705,7 +6717,7 @@
       <c r="AA142" s="2"/>
       <c r="AB142" s="2"/>
       <c r="AC142" s="2"/>
-      <c r="AD142" s="6"/>
+      <c r="AD142" s="7"/>
       <c r="AM142" s="2"/>
       <c r="AN142" s="2"/>
       <c r="AO142" s="2"/>
@@ -6735,7 +6747,7 @@
       <c r="BM142" s="2"/>
       <c r="BN142" s="2"/>
       <c r="BO142" s="2"/>
-      <c r="BP142" s="6">
+      <c r="BP142" s="7">
         <v>4</v>
       </c>
     </row>
@@ -6757,7 +6769,7 @@
       <c r="AA143" s="2"/>
       <c r="AB143" s="2"/>
       <c r="AC143" s="2"/>
-      <c r="AD143" s="6"/>
+      <c r="AD143" s="7"/>
       <c r="AE143" t="s">
         <v>2</v>
       </c>
@@ -6810,7 +6822,7 @@
       <c r="BM143" s="2"/>
       <c r="BN143" s="2"/>
       <c r="BO143" s="2"/>
-      <c r="BP143" s="6"/>
+      <c r="BP143" s="7"/>
     </row>
     <row r="144" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
@@ -6868,7 +6880,7 @@
       <c r="BM144" s="2"/>
       <c r="BN144" s="2"/>
       <c r="BO144" s="2"/>
-      <c r="BP144" s="6"/>
+      <c r="BP144" s="7"/>
       <c r="BQ144" t="s">
         <v>1</v>
       </c>
@@ -6912,7 +6924,7 @@
       <c r="AA145" s="2"/>
       <c r="AB145" s="2"/>
       <c r="AC145" s="2"/>
-      <c r="AD145" s="6">
+      <c r="AD145" s="7">
         <v>3</v>
       </c>
       <c r="AM145" s="2"/>
@@ -6967,7 +6979,7 @@
       <c r="AA146" s="2"/>
       <c r="AB146" s="2"/>
       <c r="AC146" s="2"/>
-      <c r="AD146" s="6"/>
+      <c r="AD146" s="7"/>
       <c r="AM146" s="2"/>
       <c r="AN146" s="1"/>
       <c r="AO146" s="1"/>
@@ -6997,7 +7009,7 @@
       <c r="BM146" s="1"/>
       <c r="BN146" s="1"/>
       <c r="BO146" s="2"/>
-      <c r="BP146" s="6">
+      <c r="BP146" s="7">
         <v>3</v>
       </c>
     </row>
@@ -7022,7 +7034,7 @@
       <c r="AA147" s="2"/>
       <c r="AB147" s="2"/>
       <c r="AC147" s="2"/>
-      <c r="AD147" s="6"/>
+      <c r="AD147" s="7"/>
       <c r="AE147" t="s">
         <v>2</v>
       </c>
@@ -7075,7 +7087,7 @@
       </c>
       <c r="BN147" s="1"/>
       <c r="BO147" s="2"/>
-      <c r="BP147" s="6"/>
+      <c r="BP147" s="7"/>
     </row>
     <row r="148" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
@@ -7133,7 +7145,7 @@
       <c r="BM148" s="1"/>
       <c r="BN148" s="1"/>
       <c r="BO148" s="2"/>
-      <c r="BP148" s="6"/>
+      <c r="BP148" s="7"/>
       <c r="BQ148" t="s">
         <v>16</v>
       </c>
@@ -7168,7 +7180,7 @@
       <c r="AA149" s="2"/>
       <c r="AB149" s="2"/>
       <c r="AC149" s="2"/>
-      <c r="AD149" s="6">
+      <c r="AD149" s="7">
         <v>2</v>
       </c>
       <c r="AM149" s="2"/>
@@ -7215,7 +7227,7 @@
       <c r="AA150" s="2"/>
       <c r="AB150" s="2"/>
       <c r="AC150" s="2"/>
-      <c r="AD150" s="6"/>
+      <c r="AD150" s="7"/>
       <c r="AM150" s="2"/>
       <c r="AN150" s="2"/>
       <c r="AO150" s="2"/>
@@ -7245,7 +7257,7 @@
       <c r="BM150" s="2"/>
       <c r="BN150" s="2"/>
       <c r="BO150" s="2"/>
-      <c r="BP150" s="6">
+      <c r="BP150" s="7">
         <v>2</v>
       </c>
     </row>
@@ -7261,7 +7273,7 @@
       <c r="AA151" s="2"/>
       <c r="AB151" s="2"/>
       <c r="AC151" s="2"/>
-      <c r="AD151" s="6"/>
+      <c r="AD151" s="7"/>
       <c r="AE151" t="s">
         <v>19</v>
       </c>
@@ -7312,7 +7324,7 @@
       <c r="BM151" s="2"/>
       <c r="BN151" s="2"/>
       <c r="BO151" s="2"/>
-      <c r="BP151" s="6"/>
+      <c r="BP151" s="7"/>
     </row>
     <row r="152" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
@@ -7374,7 +7386,7 @@
       <c r="BM152" s="2"/>
       <c r="BN152" s="2"/>
       <c r="BO152" s="2"/>
-      <c r="BP152" s="6"/>
+      <c r="BP152" s="7"/>
       <c r="BQ152" t="s">
         <v>1</v>
       </c>
@@ -7424,7 +7436,7 @@
       <c r="AA153" s="2"/>
       <c r="AB153" s="2"/>
       <c r="AC153" s="2"/>
-      <c r="AD153" s="6">
+      <c r="AD153" s="7">
         <v>1</v>
       </c>
       <c r="AM153" s="2"/>
@@ -7485,7 +7497,7 @@
       <c r="AA154" s="2"/>
       <c r="AB154" s="2"/>
       <c r="AC154" s="2"/>
-      <c r="AD154" s="6"/>
+      <c r="AD154" s="7"/>
       <c r="AM154" s="2"/>
       <c r="AN154" s="2"/>
       <c r="AO154" s="2"/>
@@ -7515,7 +7527,7 @@
       <c r="BM154" s="2"/>
       <c r="BN154" s="2"/>
       <c r="BO154" s="2"/>
-      <c r="BP154" s="6">
+      <c r="BP154" s="7">
         <v>1</v>
       </c>
     </row>
@@ -7546,7 +7558,7 @@
       <c r="AA155" s="2"/>
       <c r="AB155" s="2"/>
       <c r="AC155" s="2"/>
-      <c r="AD155" s="6"/>
+      <c r="AD155" s="7"/>
       <c r="AE155" s="3" t="s">
         <v>1</v>
       </c>
@@ -7597,7 +7609,7 @@
       <c r="BM155" s="2"/>
       <c r="BN155" s="2"/>
       <c r="BO155" s="2"/>
-      <c r="BP155" s="6"/>
+      <c r="BP155" s="7"/>
     </row>
     <row r="156" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
@@ -7657,7 +7669,7 @@
       <c r="BM156" s="2"/>
       <c r="BN156" s="2"/>
       <c r="BO156" s="2"/>
-      <c r="BP156" s="6"/>
+      <c r="BP156" s="7"/>
       <c r="BQ156" t="s">
         <v>1</v>
       </c>
@@ -7681,37 +7693,37 @@
       </c>
     </row>
     <row r="157" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="A157" s="7" t="s">
+      <c r="A157" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B157" s="7"/>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="7"/>
-      <c r="H157" s="7"/>
-      <c r="I157" s="7"/>
-      <c r="J157" s="7"/>
-      <c r="K157" s="7"/>
-      <c r="L157" s="7"/>
-      <c r="M157" s="7"/>
-      <c r="N157" s="7"/>
-      <c r="O157" s="7"/>
-      <c r="P157" s="7"/>
-      <c r="Q157" s="7"/>
-      <c r="R157" s="7"/>
-      <c r="S157" s="7"/>
-      <c r="T157" s="7"/>
-      <c r="U157" s="7"/>
-      <c r="V157" s="7"/>
-      <c r="W157" s="7"/>
-      <c r="X157" s="7"/>
-      <c r="Y157" s="7"/>
-      <c r="Z157" s="7"/>
-      <c r="AA157" s="7"/>
-      <c r="AB157" s="7"/>
-      <c r="AC157" s="7"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="8"/>
+      <c r="J157" s="8"/>
+      <c r="K157" s="8"/>
+      <c r="L157" s="8"/>
+      <c r="M157" s="8"/>
+      <c r="N157" s="8"/>
+      <c r="O157" s="8"/>
+      <c r="P157" s="8"/>
+      <c r="Q157" s="8"/>
+      <c r="R157" s="8"/>
+      <c r="S157" s="8"/>
+      <c r="T157" s="8"/>
+      <c r="U157" s="8"/>
+      <c r="V157" s="8"/>
+      <c r="W157" s="8"/>
+      <c r="X157" s="8"/>
+      <c r="Y157" s="8"/>
+      <c r="Z157" s="8"/>
+      <c r="AA157" s="8"/>
+      <c r="AB157" s="8"/>
+      <c r="AC157" s="8"/>
       <c r="AM157" s="2"/>
       <c r="AN157" s="2"/>
       <c r="AO157" s="2"/>
@@ -7744,72 +7756,72 @@
       <c r="BP157" s="1"/>
     </row>
     <row r="158" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B158" s="6">
-        <v>1</v>
-      </c>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="F158" s="6">
+      <c r="B158" s="7">
+        <v>1</v>
+      </c>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="F158" s="7">
         <v>2</v>
       </c>
-      <c r="G158" s="6"/>
-      <c r="H158" s="6"/>
-      <c r="J158" s="6">
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="J158" s="7">
         <v>3</v>
       </c>
-      <c r="K158" s="6"/>
-      <c r="L158" s="6"/>
-      <c r="N158" s="6">
+      <c r="K158" s="7"/>
+      <c r="L158" s="7"/>
+      <c r="N158" s="7">
         <v>4</v>
       </c>
-      <c r="O158" s="6"/>
-      <c r="P158" s="6"/>
-      <c r="R158" s="6">
+      <c r="O158" s="7"/>
+      <c r="P158" s="7"/>
+      <c r="R158" s="7">
         <v>5</v>
       </c>
-      <c r="S158" s="6"/>
-      <c r="T158" s="6"/>
-      <c r="V158" s="6">
+      <c r="S158" s="7"/>
+      <c r="T158" s="7"/>
+      <c r="V158" s="7">
         <v>6</v>
       </c>
-      <c r="W158" s="6"/>
-      <c r="X158" s="6"/>
-      <c r="Z158" s="6">
+      <c r="W158" s="7"/>
+      <c r="X158" s="7"/>
+      <c r="Z158" s="7">
         <v>7</v>
       </c>
-      <c r="AA158" s="6"/>
-      <c r="AB158" s="6"/>
-      <c r="AM158" s="7" t="s">
+      <c r="AA158" s="7"/>
+      <c r="AB158" s="7"/>
+      <c r="AM158" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AN158" s="7"/>
-      <c r="AO158" s="7"/>
-      <c r="AP158" s="7"/>
-      <c r="AQ158" s="7"/>
-      <c r="AR158" s="7"/>
-      <c r="AS158" s="7"/>
-      <c r="AT158" s="7"/>
-      <c r="AU158" s="7"/>
-      <c r="AV158" s="7"/>
-      <c r="AW158" s="7"/>
-      <c r="AX158" s="7"/>
-      <c r="AY158" s="7"/>
-      <c r="AZ158" s="7"/>
-      <c r="BA158" s="7"/>
-      <c r="BB158" s="7"/>
-      <c r="BC158" s="7"/>
-      <c r="BD158" s="7"/>
-      <c r="BE158" s="7"/>
-      <c r="BF158" s="7"/>
-      <c r="BG158" s="7"/>
-      <c r="BH158" s="7"/>
-      <c r="BI158" s="7"/>
-      <c r="BJ158" s="7"/>
-      <c r="BK158" s="7"/>
-      <c r="BL158" s="7"/>
-      <c r="BM158" s="7"/>
-      <c r="BN158" s="7"/>
-      <c r="BO158" s="7"/>
+      <c r="AN158" s="8"/>
+      <c r="AO158" s="8"/>
+      <c r="AP158" s="8"/>
+      <c r="AQ158" s="8"/>
+      <c r="AR158" s="8"/>
+      <c r="AS158" s="8"/>
+      <c r="AT158" s="8"/>
+      <c r="AU158" s="8"/>
+      <c r="AV158" s="8"/>
+      <c r="AW158" s="8"/>
+      <c r="AX158" s="8"/>
+      <c r="AY158" s="8"/>
+      <c r="AZ158" s="8"/>
+      <c r="BA158" s="8"/>
+      <c r="BB158" s="8"/>
+      <c r="BC158" s="8"/>
+      <c r="BD158" s="8"/>
+      <c r="BE158" s="8"/>
+      <c r="BF158" s="8"/>
+      <c r="BG158" s="8"/>
+      <c r="BH158" s="8"/>
+      <c r="BI158" s="8"/>
+      <c r="BJ158" s="8"/>
+      <c r="BK158" s="8"/>
+      <c r="BL158" s="8"/>
+      <c r="BM158" s="8"/>
+      <c r="BN158" s="8"/>
+      <c r="BO158" s="8"/>
       <c r="BP158" s="1"/>
     </row>
     <row r="159" spans="1:75" x14ac:dyDescent="0.2">
@@ -7842,47 +7854,47 @@
       <c r="AB159" s="2"/>
       <c r="AC159" s="2"/>
       <c r="AM159" s="1"/>
-      <c r="AN159" s="6">
-        <v>1</v>
-      </c>
-      <c r="AO159" s="6"/>
-      <c r="AP159" s="6"/>
+      <c r="AN159" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO159" s="7"/>
+      <c r="AP159" s="7"/>
       <c r="AQ159" s="1"/>
-      <c r="AR159" s="6">
+      <c r="AR159" s="7">
         <v>2</v>
       </c>
-      <c r="AS159" s="6"/>
-      <c r="AT159" s="6"/>
+      <c r="AS159" s="7"/>
+      <c r="AT159" s="7"/>
       <c r="AU159" s="1"/>
-      <c r="AV159" s="6">
+      <c r="AV159" s="7">
         <v>3</v>
       </c>
-      <c r="AW159" s="6"/>
-      <c r="AX159" s="6"/>
+      <c r="AW159" s="7"/>
+      <c r="AX159" s="7"/>
       <c r="AY159" s="1"/>
-      <c r="AZ159" s="6">
+      <c r="AZ159" s="7">
         <v>4</v>
       </c>
-      <c r="BA159" s="6"/>
-      <c r="BB159" s="6"/>
+      <c r="BA159" s="7"/>
+      <c r="BB159" s="7"/>
       <c r="BC159" s="1"/>
-      <c r="BD159" s="6">
+      <c r="BD159" s="7">
         <v>5</v>
       </c>
-      <c r="BE159" s="6"/>
-      <c r="BF159" s="6"/>
+      <c r="BE159" s="7"/>
+      <c r="BF159" s="7"/>
       <c r="BG159" s="1"/>
-      <c r="BH159" s="6">
+      <c r="BH159" s="7">
         <v>6</v>
       </c>
-      <c r="BI159" s="6"/>
-      <c r="BJ159" s="6"/>
+      <c r="BI159" s="7"/>
+      <c r="BJ159" s="7"/>
       <c r="BK159" s="1"/>
-      <c r="BL159" s="6">
+      <c r="BL159" s="7">
         <v>7</v>
       </c>
-      <c r="BM159" s="6"/>
-      <c r="BN159" s="6"/>
+      <c r="BM159" s="7"/>
+      <c r="BN159" s="7"/>
       <c r="BO159" s="1"/>
       <c r="BP159" s="1"/>
     </row>
@@ -7913,7 +7925,7 @@
       <c r="AA160" s="2"/>
       <c r="AB160" s="2"/>
       <c r="AC160" s="2"/>
-      <c r="AD160" s="6">
+      <c r="AD160" s="7">
         <v>7</v>
       </c>
       <c r="AM160" s="2"/>
@@ -7974,7 +7986,7 @@
       <c r="AA161" s="2"/>
       <c r="AB161" s="2"/>
       <c r="AC161" s="2"/>
-      <c r="AD161" s="6"/>
+      <c r="AD161" s="7"/>
       <c r="AM161" s="2"/>
       <c r="AN161" s="2"/>
       <c r="AO161" s="2"/>
@@ -8004,7 +8016,7 @@
       <c r="BM161" s="2"/>
       <c r="BN161" s="2"/>
       <c r="BO161" s="2"/>
-      <c r="BP161" s="6">
+      <c r="BP161" s="7">
         <v>7</v>
       </c>
     </row>
@@ -8035,7 +8047,7 @@
       <c r="AA162" s="2"/>
       <c r="AB162" s="2"/>
       <c r="AC162" s="2"/>
-      <c r="AD162" s="6"/>
+      <c r="AD162" s="7"/>
       <c r="AE162" s="3" t="s">
         <v>1</v>
       </c>
@@ -8086,7 +8098,7 @@
       <c r="BM162" s="2"/>
       <c r="BN162" s="2"/>
       <c r="BO162" s="2"/>
-      <c r="BP162" s="6"/>
+      <c r="BP162" s="7"/>
     </row>
     <row r="163" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
@@ -8146,7 +8158,7 @@
       <c r="BM163" s="2"/>
       <c r="BN163" s="2"/>
       <c r="BO163" s="2"/>
-      <c r="BP163" s="6"/>
+      <c r="BP163" s="7"/>
       <c r="BQ163" s="3" t="s">
         <v>1</v>
       </c>
@@ -8187,7 +8199,7 @@
       <c r="AA164" s="2"/>
       <c r="AB164" s="2"/>
       <c r="AC164" s="2"/>
-      <c r="AD164" s="6">
+      <c r="AD164" s="7">
         <v>6</v>
       </c>
       <c r="AM164" s="2"/>
@@ -8241,7 +8253,7 @@
       <c r="AA165" s="2"/>
       <c r="AB165" s="2"/>
       <c r="AC165" s="2"/>
-      <c r="AD165" s="6"/>
+      <c r="AD165" s="7"/>
       <c r="AM165" s="2"/>
       <c r="AN165" s="1"/>
       <c r="AO165" s="1"/>
@@ -8271,7 +8283,7 @@
       <c r="BM165" s="2"/>
       <c r="BN165" s="2"/>
       <c r="BO165" s="2"/>
-      <c r="BP165" s="6">
+      <c r="BP165" s="7">
         <v>6</v>
       </c>
       <c r="BY165" t="s">
@@ -8293,7 +8305,7 @@
       <c r="AA166" s="2"/>
       <c r="AB166" s="2"/>
       <c r="AC166" s="2"/>
-      <c r="AD166" s="6"/>
+      <c r="AD166" s="7"/>
       <c r="AE166" t="s">
         <v>1</v>
       </c>
@@ -8348,7 +8360,7 @@
       <c r="BM166" s="2"/>
       <c r="BN166" s="2"/>
       <c r="BO166" s="2"/>
-      <c r="BP166" s="6"/>
+      <c r="BP166" s="7"/>
       <c r="BY166" t="s">
         <v>6</v>
       </c>
@@ -8410,7 +8422,7 @@
       <c r="BM167" s="2"/>
       <c r="BN167" s="2"/>
       <c r="BO167" s="2"/>
-      <c r="BP167" s="6"/>
+      <c r="BP167" s="7"/>
       <c r="BQ167" t="s">
         <v>16</v>
       </c>
@@ -8454,7 +8466,7 @@
       <c r="U168" s="2"/>
       <c r="Y168" s="2"/>
       <c r="AC168" s="2"/>
-      <c r="AD168" s="6">
+      <c r="AD168" s="7">
         <v>5</v>
       </c>
       <c r="AM168" s="2"/>
@@ -8513,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="AC169" s="2"/>
-      <c r="AD169" s="6"/>
+      <c r="AD169" s="7"/>
       <c r="AM169" s="2"/>
       <c r="AN169" s="2"/>
       <c r="AO169" s="2"/>
@@ -8543,7 +8555,7 @@
       <c r="BM169" s="1"/>
       <c r="BN169" s="1"/>
       <c r="BO169" s="2"/>
-      <c r="BP169" s="6">
+      <c r="BP169" s="7">
         <v>5</v>
       </c>
       <c r="BY169" t="s">
@@ -8568,7 +8580,7 @@
       <c r="U170" s="2"/>
       <c r="Y170" s="2"/>
       <c r="AC170" s="2"/>
-      <c r="AD170" s="6"/>
+      <c r="AD170" s="7"/>
       <c r="AE170" s="3" t="s">
         <v>16</v>
       </c>
@@ -8619,7 +8631,7 @@
       <c r="BM170" s="1"/>
       <c r="BN170" s="1"/>
       <c r="BO170" s="2"/>
-      <c r="BP170" s="6"/>
+      <c r="BP170" s="7"/>
     </row>
     <row r="171" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
@@ -8677,7 +8689,7 @@
       <c r="BM171" s="1"/>
       <c r="BN171" s="1"/>
       <c r="BO171" s="2"/>
-      <c r="BP171" s="6"/>
+      <c r="BP171" s="7"/>
       <c r="BQ171" t="s">
         <v>1</v>
       </c>
@@ -8718,7 +8730,7 @@
       <c r="U172" s="2"/>
       <c r="Y172" s="2"/>
       <c r="AC172" s="2"/>
-      <c r="AD172" s="6">
+      <c r="AD172" s="7">
         <v>4</v>
       </c>
       <c r="AM172" s="2"/>
@@ -8770,7 +8782,7 @@
       <c r="U173" s="2"/>
       <c r="Y173" s="2"/>
       <c r="AC173" s="2"/>
-      <c r="AD173" s="6"/>
+      <c r="AD173" s="7"/>
       <c r="AM173" s="2"/>
       <c r="AN173" s="2"/>
       <c r="AO173" s="2"/>
@@ -8800,7 +8812,7 @@
       <c r="BM173" s="1"/>
       <c r="BN173" s="1"/>
       <c r="BO173" s="2"/>
-      <c r="BP173" s="6">
+      <c r="BP173" s="7">
         <v>4</v>
       </c>
     </row>
@@ -8822,7 +8834,7 @@
       <c r="U174" s="2"/>
       <c r="Y174" s="2"/>
       <c r="AC174" s="2"/>
-      <c r="AD174" s="6"/>
+      <c r="AD174" s="7"/>
       <c r="AE174" t="s">
         <v>1</v>
       </c>
@@ -8877,7 +8889,7 @@
       <c r="BM174" s="1"/>
       <c r="BN174" s="1"/>
       <c r="BO174" s="2"/>
-      <c r="BP174" s="6"/>
+      <c r="BP174" s="7"/>
     </row>
     <row r="175" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
@@ -8935,7 +8947,7 @@
       <c r="BM175" s="1"/>
       <c r="BN175" s="1"/>
       <c r="BO175" s="2"/>
-      <c r="BP175" s="6"/>
+      <c r="BP175" s="7"/>
       <c r="BQ175" t="s">
         <v>1</v>
       </c>
@@ -8973,7 +8985,7 @@
       <c r="U176" s="2"/>
       <c r="Y176" s="2"/>
       <c r="AC176" s="2"/>
-      <c r="AD176" s="6">
+      <c r="AD176" s="7">
         <v>3</v>
       </c>
       <c r="AM176" s="2"/>
@@ -9026,7 +9038,7 @@
         <v>5</v>
       </c>
       <c r="AC177" s="2"/>
-      <c r="AD177" s="6"/>
+      <c r="AD177" s="7"/>
       <c r="AM177" s="2"/>
       <c r="AN177" s="2"/>
       <c r="AO177" s="2"/>
@@ -9056,7 +9068,7 @@
       <c r="BM177" s="1"/>
       <c r="BN177" s="1"/>
       <c r="BO177" s="2"/>
-      <c r="BP177" s="6">
+      <c r="BP177" s="7">
         <v>3</v>
       </c>
     </row>
@@ -9075,7 +9087,7 @@
       <c r="U178" s="2"/>
       <c r="Y178" s="2"/>
       <c r="AC178" s="2"/>
-      <c r="AD178" s="6"/>
+      <c r="AD178" s="7"/>
       <c r="AE178" t="s">
         <v>16</v>
       </c>
@@ -9128,7 +9140,7 @@
       <c r="BM178" s="1"/>
       <c r="BN178" s="1"/>
       <c r="BO178" s="2"/>
-      <c r="BP178" s="6"/>
+      <c r="BP178" s="7"/>
     </row>
     <row r="179" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
@@ -9186,7 +9198,7 @@
       <c r="BM179" s="1"/>
       <c r="BN179" s="1"/>
       <c r="BO179" s="2"/>
-      <c r="BP179" s="6"/>
+      <c r="BP179" s="7"/>
       <c r="BQ179" t="s">
         <v>1</v>
       </c>
@@ -9224,7 +9236,7 @@
       <c r="AA180" s="2"/>
       <c r="AB180" s="2"/>
       <c r="AC180" s="2"/>
-      <c r="AD180" s="6">
+      <c r="AD180" s="7">
         <v>2</v>
       </c>
       <c r="AM180" s="2"/>
@@ -9269,7 +9281,7 @@
       <c r="AA181" s="2"/>
       <c r="AB181" s="2"/>
       <c r="AC181" s="2"/>
-      <c r="AD181" s="6"/>
+      <c r="AD181" s="7"/>
       <c r="AM181" s="2"/>
       <c r="AN181" s="2"/>
       <c r="AO181" s="2"/>
@@ -9299,7 +9311,7 @@
       <c r="BM181" s="1"/>
       <c r="BN181" s="1"/>
       <c r="BO181" s="2"/>
-      <c r="BP181" s="6">
+      <c r="BP181" s="7">
         <v>2</v>
       </c>
     </row>
@@ -9318,7 +9330,7 @@
       <c r="AA182" s="2"/>
       <c r="AB182" s="2"/>
       <c r="AC182" s="2"/>
-      <c r="AD182" s="6"/>
+      <c r="AD182" s="7"/>
       <c r="AE182" t="s">
         <v>1</v>
       </c>
@@ -9371,7 +9383,7 @@
       </c>
       <c r="BN182" s="1"/>
       <c r="BO182" s="2"/>
-      <c r="BP182" s="6"/>
+      <c r="BP182" s="7"/>
     </row>
     <row r="183" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
@@ -9431,7 +9443,7 @@
       <c r="BM183" s="1"/>
       <c r="BN183" s="1"/>
       <c r="BO183" s="2"/>
-      <c r="BP183" s="6"/>
+      <c r="BP183" s="7"/>
       <c r="BQ183" t="s">
         <v>1</v>
       </c>
@@ -9481,7 +9493,7 @@
       <c r="AA184" s="2"/>
       <c r="AB184" s="2"/>
       <c r="AC184" s="2"/>
-      <c r="AD184" s="6">
+      <c r="AD184" s="7">
         <v>1</v>
       </c>
       <c r="AM184" s="2"/>
@@ -9542,7 +9554,7 @@
       <c r="AA185" s="2"/>
       <c r="AB185" s="2"/>
       <c r="AC185" s="2"/>
-      <c r="AD185" s="6"/>
+      <c r="AD185" s="7"/>
       <c r="AM185" s="2"/>
       <c r="AN185" s="2"/>
       <c r="AO185" s="2"/>
@@ -9572,7 +9584,7 @@
       <c r="BM185" s="2"/>
       <c r="BN185" s="2"/>
       <c r="BO185" s="2"/>
-      <c r="BP185" s="6">
+      <c r="BP185" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9603,7 +9615,7 @@
       <c r="AA186" s="2"/>
       <c r="AB186" s="2"/>
       <c r="AC186" s="2"/>
-      <c r="AD186" s="6"/>
+      <c r="AD186" s="7"/>
       <c r="AE186" t="s">
         <v>1</v>
       </c>
@@ -9654,7 +9666,7 @@
       <c r="BM186" s="2"/>
       <c r="BN186" s="2"/>
       <c r="BO186" s="2"/>
-      <c r="BP186" s="6"/>
+      <c r="BP186" s="7"/>
     </row>
     <row r="187" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
@@ -9714,7 +9726,7 @@
       <c r="BM187" s="2"/>
       <c r="BN187" s="2"/>
       <c r="BO187" s="2"/>
-      <c r="BP187" s="6"/>
+      <c r="BP187" s="7"/>
       <c r="BQ187" s="3" t="s">
         <v>1</v>
       </c>
@@ -9738,37 +9750,37 @@
       </c>
     </row>
     <row r="188" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="A188" s="7" t="s">
+      <c r="A188" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B188" s="7"/>
-      <c r="C188" s="7"/>
-      <c r="D188" s="7"/>
-      <c r="E188" s="7"/>
-      <c r="F188" s="7"/>
-      <c r="G188" s="7"/>
-      <c r="H188" s="7"/>
-      <c r="I188" s="7"/>
-      <c r="J188" s="7"/>
-      <c r="K188" s="7"/>
-      <c r="L188" s="7"/>
-      <c r="M188" s="7"/>
-      <c r="N188" s="7"/>
-      <c r="O188" s="7"/>
-      <c r="P188" s="7"/>
-      <c r="Q188" s="7"/>
-      <c r="R188" s="7"/>
-      <c r="S188" s="7"/>
-      <c r="T188" s="7"/>
-      <c r="U188" s="7"/>
-      <c r="V188" s="7"/>
-      <c r="W188" s="7"/>
-      <c r="X188" s="7"/>
-      <c r="Y188" s="7"/>
-      <c r="Z188" s="7"/>
-      <c r="AA188" s="7"/>
-      <c r="AB188" s="7"/>
-      <c r="AC188" s="7"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
+      <c r="D188" s="8"/>
+      <c r="E188" s="8"/>
+      <c r="F188" s="8"/>
+      <c r="G188" s="8"/>
+      <c r="H188" s="8"/>
+      <c r="I188" s="8"/>
+      <c r="J188" s="8"/>
+      <c r="K188" s="8"/>
+      <c r="L188" s="8"/>
+      <c r="M188" s="8"/>
+      <c r="N188" s="8"/>
+      <c r="O188" s="8"/>
+      <c r="P188" s="8"/>
+      <c r="Q188" s="8"/>
+      <c r="R188" s="8"/>
+      <c r="S188" s="8"/>
+      <c r="T188" s="8"/>
+      <c r="U188" s="8"/>
+      <c r="V188" s="8"/>
+      <c r="W188" s="8"/>
+      <c r="X188" s="8"/>
+      <c r="Y188" s="8"/>
+      <c r="Z188" s="8"/>
+      <c r="AA188" s="8"/>
+      <c r="AB188" s="8"/>
+      <c r="AC188" s="8"/>
       <c r="AM188" s="2"/>
       <c r="AN188" s="2"/>
       <c r="AO188" s="2"/>
@@ -9801,72 +9813,72 @@
       <c r="BP188" s="1"/>
     </row>
     <row r="189" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B189" s="6">
-        <v>1</v>
-      </c>
-      <c r="C189" s="6"/>
-      <c r="D189" s="6"/>
-      <c r="F189" s="6">
+      <c r="B189" s="7">
+        <v>1</v>
+      </c>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+      <c r="F189" s="7">
         <v>2</v>
       </c>
-      <c r="G189" s="6"/>
-      <c r="H189" s="6"/>
-      <c r="J189" s="6">
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
+      <c r="J189" s="7">
         <v>3</v>
       </c>
-      <c r="K189" s="6"/>
-      <c r="L189" s="6"/>
-      <c r="N189" s="6">
+      <c r="K189" s="7"/>
+      <c r="L189" s="7"/>
+      <c r="N189" s="7">
         <v>4</v>
       </c>
-      <c r="O189" s="6"/>
-      <c r="P189" s="6"/>
-      <c r="R189" s="6">
+      <c r="O189" s="7"/>
+      <c r="P189" s="7"/>
+      <c r="R189" s="7">
         <v>5</v>
       </c>
-      <c r="S189" s="6"/>
-      <c r="T189" s="6"/>
-      <c r="V189" s="6">
+      <c r="S189" s="7"/>
+      <c r="T189" s="7"/>
+      <c r="V189" s="7">
         <v>6</v>
       </c>
-      <c r="W189" s="6"/>
-      <c r="X189" s="6"/>
-      <c r="Z189" s="6">
+      <c r="W189" s="7"/>
+      <c r="X189" s="7"/>
+      <c r="Z189" s="7">
         <v>7</v>
       </c>
-      <c r="AA189" s="6"/>
-      <c r="AB189" s="6"/>
-      <c r="AM189" s="7" t="s">
+      <c r="AA189" s="7"/>
+      <c r="AB189" s="7"/>
+      <c r="AM189" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AN189" s="7"/>
-      <c r="AO189" s="7"/>
-      <c r="AP189" s="7"/>
-      <c r="AQ189" s="7"/>
-      <c r="AR189" s="7"/>
-      <c r="AS189" s="7"/>
-      <c r="AT189" s="7"/>
-      <c r="AU189" s="7"/>
-      <c r="AV189" s="7"/>
-      <c r="AW189" s="7"/>
-      <c r="AX189" s="7"/>
-      <c r="AY189" s="7"/>
-      <c r="AZ189" s="7"/>
-      <c r="BA189" s="7"/>
-      <c r="BB189" s="7"/>
-      <c r="BC189" s="7"/>
-      <c r="BD189" s="7"/>
-      <c r="BE189" s="7"/>
-      <c r="BF189" s="7"/>
-      <c r="BG189" s="7"/>
-      <c r="BH189" s="7"/>
-      <c r="BI189" s="7"/>
-      <c r="BJ189" s="7"/>
-      <c r="BK189" s="7"/>
-      <c r="BL189" s="7"/>
-      <c r="BM189" s="7"/>
-      <c r="BN189" s="7"/>
-      <c r="BO189" s="7"/>
+      <c r="AN189" s="8"/>
+      <c r="AO189" s="8"/>
+      <c r="AP189" s="8"/>
+      <c r="AQ189" s="8"/>
+      <c r="AR189" s="8"/>
+      <c r="AS189" s="8"/>
+      <c r="AT189" s="8"/>
+      <c r="AU189" s="8"/>
+      <c r="AV189" s="8"/>
+      <c r="AW189" s="8"/>
+      <c r="AX189" s="8"/>
+      <c r="AY189" s="8"/>
+      <c r="AZ189" s="8"/>
+      <c r="BA189" s="8"/>
+      <c r="BB189" s="8"/>
+      <c r="BC189" s="8"/>
+      <c r="BD189" s="8"/>
+      <c r="BE189" s="8"/>
+      <c r="BF189" s="8"/>
+      <c r="BG189" s="8"/>
+      <c r="BH189" s="8"/>
+      <c r="BI189" s="8"/>
+      <c r="BJ189" s="8"/>
+      <c r="BK189" s="8"/>
+      <c r="BL189" s="8"/>
+      <c r="BM189" s="8"/>
+      <c r="BN189" s="8"/>
+      <c r="BO189" s="8"/>
       <c r="BP189" s="1"/>
     </row>
     <row r="190" spans="1:75" x14ac:dyDescent="0.2">
@@ -9900,47 +9912,47 @@
       <c r="AB190" s="2"/>
       <c r="AC190" s="2"/>
       <c r="AM190" s="1"/>
-      <c r="AN190" s="6">
-        <v>1</v>
-      </c>
-      <c r="AO190" s="6"/>
-      <c r="AP190" s="6"/>
+      <c r="AN190" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO190" s="7"/>
+      <c r="AP190" s="7"/>
       <c r="AQ190" s="1"/>
-      <c r="AR190" s="6">
+      <c r="AR190" s="7">
         <v>2</v>
       </c>
-      <c r="AS190" s="6"/>
-      <c r="AT190" s="6"/>
+      <c r="AS190" s="7"/>
+      <c r="AT190" s="7"/>
       <c r="AU190" s="1"/>
-      <c r="AV190" s="6">
+      <c r="AV190" s="7">
         <v>3</v>
       </c>
-      <c r="AW190" s="6"/>
-      <c r="AX190" s="6"/>
+      <c r="AW190" s="7"/>
+      <c r="AX190" s="7"/>
       <c r="AY190" s="1"/>
-      <c r="AZ190" s="6">
+      <c r="AZ190" s="7">
         <v>4</v>
       </c>
-      <c r="BA190" s="6"/>
-      <c r="BB190" s="6"/>
+      <c r="BA190" s="7"/>
+      <c r="BB190" s="7"/>
       <c r="BC190" s="1"/>
-      <c r="BD190" s="6">
+      <c r="BD190" s="7">
         <v>5</v>
       </c>
-      <c r="BE190" s="6"/>
-      <c r="BF190" s="6"/>
+      <c r="BE190" s="7"/>
+      <c r="BF190" s="7"/>
       <c r="BG190" s="1"/>
-      <c r="BH190" s="6">
+      <c r="BH190" s="7">
         <v>6</v>
       </c>
-      <c r="BI190" s="6"/>
-      <c r="BJ190" s="6"/>
+      <c r="BI190" s="7"/>
+      <c r="BJ190" s="7"/>
       <c r="BK190" s="1"/>
-      <c r="BL190" s="6">
+      <c r="BL190" s="7">
         <v>7</v>
       </c>
-      <c r="BM190" s="6"/>
-      <c r="BN190" s="6"/>
+      <c r="BM190" s="7"/>
+      <c r="BN190" s="7"/>
       <c r="BO190" s="1"/>
       <c r="BP190" s="1"/>
     </row>
@@ -9971,7 +9983,7 @@
       <c r="AA191" s="2"/>
       <c r="AB191" s="2"/>
       <c r="AC191" s="2"/>
-      <c r="AD191" s="6">
+      <c r="AD191" s="7">
         <v>7</v>
       </c>
       <c r="AM191" s="2"/>
@@ -10032,7 +10044,7 @@
       <c r="AA192" s="2"/>
       <c r="AB192" s="2"/>
       <c r="AC192" s="2"/>
-      <c r="AD192" s="6"/>
+      <c r="AD192" s="7"/>
       <c r="AM192" s="2"/>
       <c r="AN192" s="2"/>
       <c r="AO192" s="2"/>
@@ -10062,7 +10074,7 @@
       <c r="BM192" s="2"/>
       <c r="BN192" s="2"/>
       <c r="BO192" s="2"/>
-      <c r="BP192" s="6">
+      <c r="BP192" s="7">
         <v>7</v>
       </c>
     </row>
@@ -10093,7 +10105,7 @@
       <c r="AA193" s="2"/>
       <c r="AB193" s="2"/>
       <c r="AC193" s="2"/>
-      <c r="AD193" s="6"/>
+      <c r="AD193" s="7"/>
       <c r="AE193" s="3" t="s">
         <v>1</v>
       </c>
@@ -10144,7 +10156,7 @@
       <c r="BM193" s="2"/>
       <c r="BN193" s="2"/>
       <c r="BO193" s="2"/>
-      <c r="BP193" s="6"/>
+      <c r="BP193" s="7"/>
       <c r="BQ193" s="3"/>
       <c r="BR193" s="3"/>
       <c r="BS193" s="3"/>
@@ -10211,7 +10223,7 @@
       <c r="BM194" s="2"/>
       <c r="BN194" s="2"/>
       <c r="BO194" s="2"/>
-      <c r="BP194" s="6"/>
+      <c r="BP194" s="7"/>
       <c r="BQ194" s="3" t="s">
         <v>1</v>
       </c>
@@ -10258,7 +10270,7 @@
       <c r="AA195" s="2"/>
       <c r="AB195" s="2"/>
       <c r="AC195" s="2"/>
-      <c r="AD195" s="6">
+      <c r="AD195" s="7">
         <v>6</v>
       </c>
       <c r="AM195" s="2"/>
@@ -10320,7 +10332,7 @@
       <c r="AA196" s="2"/>
       <c r="AB196" s="2"/>
       <c r="AC196" s="2"/>
-      <c r="AD196" s="6"/>
+      <c r="AD196" s="7"/>
       <c r="AM196" s="2"/>
       <c r="AN196" s="2"/>
       <c r="AO196" s="2"/>
@@ -10350,7 +10362,7 @@
       <c r="BM196" s="2"/>
       <c r="BN196" s="2"/>
       <c r="BO196" s="2"/>
-      <c r="BP196" s="6">
+      <c r="BP196" s="7">
         <v>6</v>
       </c>
       <c r="BY196" t="s">
@@ -10378,7 +10390,7 @@
       <c r="AA197" s="2"/>
       <c r="AB197" s="2"/>
       <c r="AC197" s="2"/>
-      <c r="AD197" s="6"/>
+      <c r="AD197" s="7"/>
       <c r="AE197" s="3" t="s">
         <v>1</v>
       </c>
@@ -10435,7 +10447,7 @@
       <c r="BM197" s="2"/>
       <c r="BN197" s="2"/>
       <c r="BO197" s="2"/>
-      <c r="BP197" s="6"/>
+      <c r="BP197" s="7"/>
       <c r="BY197" t="s">
         <v>6</v>
       </c>
@@ -10498,7 +10510,7 @@
       <c r="BM198" s="2"/>
       <c r="BN198" s="2"/>
       <c r="BO198" s="2"/>
-      <c r="BP198" s="6"/>
+      <c r="BP198" s="7"/>
       <c r="BQ198" t="s">
         <v>1</v>
       </c>
@@ -10545,7 +10557,7 @@
       <c r="AA199" s="2"/>
       <c r="AB199" s="2"/>
       <c r="AC199" s="2"/>
-      <c r="AD199" s="6">
+      <c r="AD199" s="7">
         <v>5</v>
       </c>
       <c r="AM199" s="2"/>
@@ -10601,7 +10613,7 @@
       <c r="AA200" s="2"/>
       <c r="AB200" s="2"/>
       <c r="AC200" s="2"/>
-      <c r="AD200" s="6"/>
+      <c r="AD200" s="7"/>
       <c r="AM200" s="2"/>
       <c r="AN200" s="1"/>
       <c r="AO200" s="1"/>
@@ -10631,7 +10643,7 @@
       <c r="BM200" s="1"/>
       <c r="BN200" s="1"/>
       <c r="BO200" s="2"/>
-      <c r="BP200" s="6">
+      <c r="BP200" s="7">
         <v>5</v>
       </c>
       <c r="BY200" t="s">
@@ -10659,7 +10671,7 @@
       <c r="AA201" s="2"/>
       <c r="AB201" s="2"/>
       <c r="AC201" s="2"/>
-      <c r="AD201" s="6"/>
+      <c r="AD201" s="7"/>
       <c r="AE201" s="3" t="s">
         <v>1</v>
       </c>
@@ -10712,7 +10724,7 @@
       </c>
       <c r="BN201" s="1"/>
       <c r="BO201" s="2"/>
-      <c r="BP201" s="6"/>
+      <c r="BP201" s="7"/>
     </row>
     <row r="202" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
@@ -10772,7 +10784,7 @@
       <c r="BM202" s="1"/>
       <c r="BN202" s="1"/>
       <c r="BO202" s="2"/>
-      <c r="BP202" s="6"/>
+      <c r="BP202" s="7"/>
       <c r="BQ202" s="3" t="s">
         <v>16</v>
       </c>
@@ -10816,7 +10828,7 @@
       <c r="AA203" s="2"/>
       <c r="AB203" s="2"/>
       <c r="AC203" s="2"/>
-      <c r="AD203" s="6">
+      <c r="AD203" s="7">
         <v>4</v>
       </c>
       <c r="AM203" s="2"/>
@@ -10875,7 +10887,7 @@
       <c r="AA204" s="2"/>
       <c r="AB204" s="2"/>
       <c r="AC204" s="2"/>
-      <c r="AD204" s="6"/>
+      <c r="AD204" s="7"/>
       <c r="AM204" s="2"/>
       <c r="AN204" s="2"/>
       <c r="AO204" s="2"/>
@@ -10905,7 +10917,7 @@
       <c r="BM204" s="2"/>
       <c r="BN204" s="2"/>
       <c r="BO204" s="2"/>
-      <c r="BP204" s="6">
+      <c r="BP204" s="7">
         <v>4</v>
       </c>
     </row>
@@ -10930,7 +10942,7 @@
       <c r="AA205" s="2"/>
       <c r="AB205" s="2"/>
       <c r="AC205" s="2"/>
-      <c r="AD205" s="6"/>
+      <c r="AD205" s="7"/>
       <c r="AE205" s="3" t="s">
         <v>1</v>
       </c>
@@ -10983,7 +10995,7 @@
       <c r="BM205" s="2"/>
       <c r="BN205" s="2"/>
       <c r="BO205" s="2"/>
-      <c r="BP205" s="6"/>
+      <c r="BP205" s="7"/>
     </row>
     <row r="206" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
@@ -11043,7 +11055,7 @@
       <c r="BM206" s="2"/>
       <c r="BN206" s="2"/>
       <c r="BO206" s="2"/>
-      <c r="BP206" s="6"/>
+      <c r="BP206" s="7"/>
       <c r="BQ206" t="s">
         <v>1</v>
       </c>
@@ -11087,7 +11099,7 @@
       <c r="AA207" s="2"/>
       <c r="AB207" s="2"/>
       <c r="AC207" s="2"/>
-      <c r="AD207" s="6">
+      <c r="AD207" s="7">
         <v>3</v>
       </c>
       <c r="AM207" s="2"/>
@@ -11146,7 +11158,7 @@
       <c r="AA208" s="2"/>
       <c r="AB208" s="2"/>
       <c r="AC208" s="2"/>
-      <c r="AD208" s="6"/>
+      <c r="AD208" s="7"/>
       <c r="AM208" s="2"/>
       <c r="AN208" s="1"/>
       <c r="AO208" s="1"/>
@@ -11176,7 +11188,7 @@
       <c r="BM208" s="1"/>
       <c r="BN208" s="1"/>
       <c r="BO208" s="2"/>
-      <c r="BP208" s="6">
+      <c r="BP208" s="7">
         <v>3</v>
       </c>
     </row>
@@ -11201,7 +11213,7 @@
       <c r="AA209" s="2"/>
       <c r="AB209" s="2"/>
       <c r="AC209" s="2"/>
-      <c r="AD209" s="6"/>
+      <c r="AD209" s="7"/>
       <c r="AE209" s="3" t="s">
         <v>1</v>
       </c>
@@ -11254,7 +11266,7 @@
       <c r="BM209" s="1"/>
       <c r="BN209" s="1"/>
       <c r="BO209" s="2"/>
-      <c r="BP209" s="6"/>
+      <c r="BP209" s="7"/>
     </row>
     <row r="210" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
@@ -11314,7 +11326,7 @@
       <c r="BM210" s="1"/>
       <c r="BN210" s="1"/>
       <c r="BO210" s="2"/>
-      <c r="BP210" s="6"/>
+      <c r="BP210" s="7"/>
       <c r="BQ210" t="s">
         <v>16</v>
       </c>
@@ -11358,7 +11370,7 @@
       <c r="AA211" s="2"/>
       <c r="AB211" s="2"/>
       <c r="AC211" s="2"/>
-      <c r="AD211" s="6">
+      <c r="AD211" s="7">
         <v>2</v>
       </c>
       <c r="AM211" s="2"/>
@@ -11414,7 +11426,7 @@
       <c r="AA212" s="2"/>
       <c r="AB212" s="2"/>
       <c r="AC212" s="2"/>
-      <c r="AD212" s="6"/>
+      <c r="AD212" s="7"/>
       <c r="AM212" s="2"/>
       <c r="AN212" s="2"/>
       <c r="AO212" s="2"/>
@@ -11444,7 +11456,7 @@
       <c r="BM212" s="2"/>
       <c r="BN212" s="2"/>
       <c r="BO212" s="2"/>
-      <c r="BP212" s="6">
+      <c r="BP212" s="7">
         <v>2</v>
       </c>
     </row>
@@ -11469,7 +11481,7 @@
       <c r="AA213" s="2"/>
       <c r="AB213" s="2"/>
       <c r="AC213" s="2"/>
-      <c r="AD213" s="6"/>
+      <c r="AD213" s="7"/>
       <c r="AE213" t="s">
         <v>1</v>
       </c>
@@ -11524,7 +11536,7 @@
       <c r="BM213" s="2"/>
       <c r="BN213" s="2"/>
       <c r="BO213" s="2"/>
-      <c r="BP213" s="6"/>
+      <c r="BP213" s="7"/>
     </row>
     <row r="214" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
@@ -11584,7 +11596,7 @@
       <c r="BM214" s="2"/>
       <c r="BN214" s="2"/>
       <c r="BO214" s="2"/>
-      <c r="BP214" s="6"/>
+      <c r="BP214" s="7"/>
       <c r="BQ214" t="s">
         <v>1</v>
       </c>
@@ -11634,7 +11646,7 @@
       <c r="AA215" s="2"/>
       <c r="AB215" s="2"/>
       <c r="AC215" s="2"/>
-      <c r="AD215" s="6">
+      <c r="AD215" s="7">
         <v>1</v>
       </c>
       <c r="AM215" s="2"/>
@@ -11695,7 +11707,7 @@
       <c r="AA216" s="2"/>
       <c r="AB216" s="2"/>
       <c r="AC216" s="2"/>
-      <c r="AD216" s="6"/>
+      <c r="AD216" s="7"/>
       <c r="AM216" s="2"/>
       <c r="AN216" s="2"/>
       <c r="AO216" s="2"/>
@@ -11725,7 +11737,7 @@
       <c r="BM216" s="2"/>
       <c r="BN216" s="2"/>
       <c r="BO216" s="2"/>
-      <c r="BP216" s="6">
+      <c r="BP216" s="7">
         <v>1</v>
       </c>
     </row>
@@ -11756,7 +11768,7 @@
       <c r="AA217" s="2"/>
       <c r="AB217" s="2"/>
       <c r="AC217" s="2"/>
-      <c r="AD217" s="6"/>
+      <c r="AD217" s="7"/>
       <c r="AE217" t="s">
         <v>1</v>
       </c>
@@ -11807,7 +11819,7 @@
       <c r="BM217" s="2"/>
       <c r="BN217" s="2"/>
       <c r="BO217" s="2"/>
-      <c r="BP217" s="6"/>
+      <c r="BP217" s="7"/>
     </row>
     <row r="218" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
@@ -11867,7 +11879,7 @@
       <c r="BM218" s="2"/>
       <c r="BN218" s="2"/>
       <c r="BO218" s="2"/>
-      <c r="BP218" s="6"/>
+      <c r="BP218" s="7"/>
       <c r="BQ218" t="s">
         <v>1</v>
       </c>
@@ -11923,82 +11935,82 @@
       <c r="BP219" s="1"/>
     </row>
     <row r="220" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="AM220" s="7" t="s">
+      <c r="AM220" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AN220" s="7"/>
-      <c r="AO220" s="7"/>
-      <c r="AP220" s="7"/>
-      <c r="AQ220" s="7"/>
-      <c r="AR220" s="7"/>
-      <c r="AS220" s="7"/>
-      <c r="AT220" s="7"/>
-      <c r="AU220" s="7"/>
-      <c r="AV220" s="7"/>
-      <c r="AW220" s="7"/>
-      <c r="AX220" s="7"/>
-      <c r="AY220" s="7"/>
-      <c r="AZ220" s="7"/>
-      <c r="BA220" s="7"/>
-      <c r="BB220" s="7"/>
-      <c r="BC220" s="7"/>
-      <c r="BD220" s="7"/>
-      <c r="BE220" s="7"/>
-      <c r="BF220" s="7"/>
-      <c r="BG220" s="7"/>
-      <c r="BH220" s="7"/>
-      <c r="BI220" s="7"/>
-      <c r="BJ220" s="7"/>
-      <c r="BK220" s="7"/>
-      <c r="BL220" s="7"/>
-      <c r="BM220" s="7"/>
-      <c r="BN220" s="7"/>
-      <c r="BO220" s="7"/>
+      <c r="AN220" s="8"/>
+      <c r="AO220" s="8"/>
+      <c r="AP220" s="8"/>
+      <c r="AQ220" s="8"/>
+      <c r="AR220" s="8"/>
+      <c r="AS220" s="8"/>
+      <c r="AT220" s="8"/>
+      <c r="AU220" s="8"/>
+      <c r="AV220" s="8"/>
+      <c r="AW220" s="8"/>
+      <c r="AX220" s="8"/>
+      <c r="AY220" s="8"/>
+      <c r="AZ220" s="8"/>
+      <c r="BA220" s="8"/>
+      <c r="BB220" s="8"/>
+      <c r="BC220" s="8"/>
+      <c r="BD220" s="8"/>
+      <c r="BE220" s="8"/>
+      <c r="BF220" s="8"/>
+      <c r="BG220" s="8"/>
+      <c r="BH220" s="8"/>
+      <c r="BI220" s="8"/>
+      <c r="BJ220" s="8"/>
+      <c r="BK220" s="8"/>
+      <c r="BL220" s="8"/>
+      <c r="BM220" s="8"/>
+      <c r="BN220" s="8"/>
+      <c r="BO220" s="8"/>
       <c r="BP220" s="1"/>
     </row>
     <row r="221" spans="1:75" x14ac:dyDescent="0.2">
       <c r="AM221" s="1"/>
-      <c r="AN221" s="6">
-        <v>1</v>
-      </c>
-      <c r="AO221" s="6"/>
-      <c r="AP221" s="6"/>
+      <c r="AN221" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO221" s="7"/>
+      <c r="AP221" s="7"/>
       <c r="AQ221" s="1"/>
-      <c r="AR221" s="6">
+      <c r="AR221" s="7">
         <v>2</v>
       </c>
-      <c r="AS221" s="6"/>
-      <c r="AT221" s="6"/>
+      <c r="AS221" s="7"/>
+      <c r="AT221" s="7"/>
       <c r="AU221" s="1"/>
-      <c r="AV221" s="6">
+      <c r="AV221" s="7">
         <v>3</v>
       </c>
-      <c r="AW221" s="6"/>
-      <c r="AX221" s="6"/>
+      <c r="AW221" s="7"/>
+      <c r="AX221" s="7"/>
       <c r="AY221" s="1"/>
-      <c r="AZ221" s="6">
+      <c r="AZ221" s="7">
         <v>4</v>
       </c>
-      <c r="BA221" s="6"/>
-      <c r="BB221" s="6"/>
+      <c r="BA221" s="7"/>
+      <c r="BB221" s="7"/>
       <c r="BC221" s="1"/>
-      <c r="BD221" s="6">
+      <c r="BD221" s="7">
         <v>5</v>
       </c>
-      <c r="BE221" s="6"/>
-      <c r="BF221" s="6"/>
+      <c r="BE221" s="7"/>
+      <c r="BF221" s="7"/>
       <c r="BG221" s="1"/>
-      <c r="BH221" s="6">
+      <c r="BH221" s="7">
         <v>6</v>
       </c>
-      <c r="BI221" s="6"/>
-      <c r="BJ221" s="6"/>
+      <c r="BI221" s="7"/>
+      <c r="BJ221" s="7"/>
       <c r="BK221" s="1"/>
-      <c r="BL221" s="6">
+      <c r="BL221" s="7">
         <v>7</v>
       </c>
-      <c r="BM221" s="6"/>
-      <c r="BN221" s="6"/>
+      <c r="BM221" s="7"/>
+      <c r="BN221" s="7"/>
       <c r="BO221" s="1"/>
       <c r="BP221" s="1"/>
     </row>
@@ -12064,7 +12076,7 @@
       <c r="BM223" s="2"/>
       <c r="BN223" s="2"/>
       <c r="BO223" s="2"/>
-      <c r="BP223" s="6">
+      <c r="BP223" s="7">
         <v>7</v>
       </c>
     </row>
@@ -12098,7 +12110,7 @@
       <c r="BM224" s="2"/>
       <c r="BN224" s="2"/>
       <c r="BO224" s="2"/>
-      <c r="BP224" s="6"/>
+      <c r="BP224" s="7"/>
     </row>
     <row r="225" spans="39:77" x14ac:dyDescent="0.2">
       <c r="AM225" s="2"/>
@@ -12130,7 +12142,7 @@
       <c r="BM225" s="2"/>
       <c r="BN225" s="2"/>
       <c r="BO225" s="2"/>
-      <c r="BP225" s="6"/>
+      <c r="BP225" s="7"/>
       <c r="BQ225" s="3" t="s">
         <v>1</v>
       </c>
@@ -12221,7 +12233,7 @@
       <c r="BM227" s="1"/>
       <c r="BN227" s="1"/>
       <c r="BO227" s="2"/>
-      <c r="BP227" s="6">
+      <c r="BP227" s="7">
         <v>6</v>
       </c>
       <c r="BY227" t="s">
@@ -12262,7 +12274,7 @@
       </c>
       <c r="BN228" s="1"/>
       <c r="BO228" s="2"/>
-      <c r="BP228" s="6"/>
+      <c r="BP228" s="7"/>
       <c r="BY228" t="s">
         <v>6</v>
       </c>
@@ -12297,7 +12309,7 @@
       <c r="BM229" s="1"/>
       <c r="BN229" s="1"/>
       <c r="BO229" s="2"/>
-      <c r="BP229" s="6"/>
+      <c r="BP229" s="7"/>
       <c r="BQ229" t="s">
         <v>1</v>
       </c>
@@ -12388,7 +12400,7 @@
       <c r="BM231" s="2"/>
       <c r="BN231" s="2"/>
       <c r="BO231" s="2"/>
-      <c r="BP231" s="6">
+      <c r="BP231" s="7">
         <v>5</v>
       </c>
       <c r="BY231" t="s">
@@ -12427,7 +12439,7 @@
       <c r="BM232" s="2"/>
       <c r="BN232" s="2"/>
       <c r="BO232" s="2"/>
-      <c r="BP232" s="6"/>
+      <c r="BP232" s="7"/>
     </row>
     <row r="233" spans="39:77" x14ac:dyDescent="0.2">
       <c r="AM233" s="2"/>
@@ -12459,7 +12471,7 @@
       <c r="BM233" s="2"/>
       <c r="BN233" s="2"/>
       <c r="BO233" s="2"/>
-      <c r="BP233" s="6"/>
+      <c r="BP233" s="7"/>
       <c r="BQ233" t="s">
         <v>18</v>
       </c>
@@ -12544,7 +12556,7 @@
       <c r="BM235" s="2"/>
       <c r="BN235" s="2"/>
       <c r="BO235" s="2"/>
-      <c r="BP235" s="6">
+      <c r="BP235" s="7">
         <v>4</v>
       </c>
     </row>
@@ -12580,7 +12592,7 @@
       <c r="BM236" s="2"/>
       <c r="BN236" s="2"/>
       <c r="BO236" s="2"/>
-      <c r="BP236" s="6"/>
+      <c r="BP236" s="7"/>
     </row>
     <row r="237" spans="39:77" x14ac:dyDescent="0.2">
       <c r="AM237" s="2"/>
@@ -12612,7 +12624,7 @@
       <c r="BM237" s="2"/>
       <c r="BN237" s="2"/>
       <c r="BO237" s="2"/>
-      <c r="BP237" s="6"/>
+      <c r="BP237" s="7"/>
       <c r="BQ237" t="s">
         <v>2</v>
       </c>
@@ -12697,7 +12709,7 @@
       <c r="BM239" s="2"/>
       <c r="BN239" s="2"/>
       <c r="BO239" s="2"/>
-      <c r="BP239" s="6">
+      <c r="BP239" s="7">
         <v>3</v>
       </c>
     </row>
@@ -12731,7 +12743,7 @@
       <c r="BM240" s="2"/>
       <c r="BN240" s="2"/>
       <c r="BO240" s="2"/>
-      <c r="BP240" s="6"/>
+      <c r="BP240" s="7"/>
     </row>
     <row r="241" spans="39:77" x14ac:dyDescent="0.2">
       <c r="AM241" s="2"/>
@@ -12763,7 +12775,7 @@
       <c r="BM241" s="2"/>
       <c r="BN241" s="2"/>
       <c r="BO241" s="2"/>
-      <c r="BP241" s="6"/>
+      <c r="BP241" s="7"/>
       <c r="BQ241" t="s">
         <v>2</v>
       </c>
@@ -12848,7 +12860,7 @@
       <c r="BM243" s="2"/>
       <c r="BN243" s="2"/>
       <c r="BO243" s="2"/>
-      <c r="BP243" s="6">
+      <c r="BP243" s="7">
         <v>2</v>
       </c>
     </row>
@@ -12886,7 +12898,7 @@
       <c r="BM244" s="2"/>
       <c r="BN244" s="2"/>
       <c r="BO244" s="2"/>
-      <c r="BP244" s="6"/>
+      <c r="BP244" s="7"/>
     </row>
     <row r="245" spans="39:77" x14ac:dyDescent="0.2">
       <c r="AM245" s="2"/>
@@ -12918,7 +12930,7 @@
       <c r="BM245" s="2"/>
       <c r="BN245" s="2"/>
       <c r="BO245" s="2"/>
-      <c r="BP245" s="6"/>
+      <c r="BP245" s="7"/>
       <c r="BQ245" t="s">
         <v>19</v>
       </c>
@@ -13003,7 +13015,7 @@
       <c r="BM247" s="2"/>
       <c r="BN247" s="2"/>
       <c r="BO247" s="2"/>
-      <c r="BP247" s="6">
+      <c r="BP247" s="7">
         <v>1</v>
       </c>
     </row>
@@ -13037,7 +13049,7 @@
       <c r="BM248" s="2"/>
       <c r="BN248" s="2"/>
       <c r="BO248" s="2"/>
-      <c r="BP248" s="6"/>
+      <c r="BP248" s="7"/>
     </row>
     <row r="249" spans="39:77" x14ac:dyDescent="0.2">
       <c r="AM249" s="2"/>
@@ -13069,7 +13081,7 @@
       <c r="BM249" s="2"/>
       <c r="BN249" s="2"/>
       <c r="BO249" s="2"/>
-      <c r="BP249" s="6"/>
+      <c r="BP249" s="7"/>
       <c r="BQ249" s="3" t="s">
         <v>1</v>
       </c>
@@ -13125,82 +13137,82 @@
       <c r="BP250" s="1"/>
     </row>
     <row r="251" spans="39:77" x14ac:dyDescent="0.2">
-      <c r="AM251" s="7" t="s">
+      <c r="AM251" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AN251" s="7"/>
-      <c r="AO251" s="7"/>
-      <c r="AP251" s="7"/>
-      <c r="AQ251" s="7"/>
-      <c r="AR251" s="7"/>
-      <c r="AS251" s="7"/>
-      <c r="AT251" s="7"/>
-      <c r="AU251" s="7"/>
-      <c r="AV251" s="7"/>
-      <c r="AW251" s="7"/>
-      <c r="AX251" s="7"/>
-      <c r="AY251" s="7"/>
-      <c r="AZ251" s="7"/>
-      <c r="BA251" s="7"/>
-      <c r="BB251" s="7"/>
-      <c r="BC251" s="7"/>
-      <c r="BD251" s="7"/>
-      <c r="BE251" s="7"/>
-      <c r="BF251" s="7"/>
-      <c r="BG251" s="7"/>
-      <c r="BH251" s="7"/>
-      <c r="BI251" s="7"/>
-      <c r="BJ251" s="7"/>
-      <c r="BK251" s="7"/>
-      <c r="BL251" s="7"/>
-      <c r="BM251" s="7"/>
-      <c r="BN251" s="7"/>
-      <c r="BO251" s="7"/>
+      <c r="AN251" s="8"/>
+      <c r="AO251" s="8"/>
+      <c r="AP251" s="8"/>
+      <c r="AQ251" s="8"/>
+      <c r="AR251" s="8"/>
+      <c r="AS251" s="8"/>
+      <c r="AT251" s="8"/>
+      <c r="AU251" s="8"/>
+      <c r="AV251" s="8"/>
+      <c r="AW251" s="8"/>
+      <c r="AX251" s="8"/>
+      <c r="AY251" s="8"/>
+      <c r="AZ251" s="8"/>
+      <c r="BA251" s="8"/>
+      <c r="BB251" s="8"/>
+      <c r="BC251" s="8"/>
+      <c r="BD251" s="8"/>
+      <c r="BE251" s="8"/>
+      <c r="BF251" s="8"/>
+      <c r="BG251" s="8"/>
+      <c r="BH251" s="8"/>
+      <c r="BI251" s="8"/>
+      <c r="BJ251" s="8"/>
+      <c r="BK251" s="8"/>
+      <c r="BL251" s="8"/>
+      <c r="BM251" s="8"/>
+      <c r="BN251" s="8"/>
+      <c r="BO251" s="8"/>
       <c r="BP251" s="1"/>
     </row>
     <row r="252" spans="39:77" x14ac:dyDescent="0.2">
       <c r="AM252" s="1"/>
-      <c r="AN252" s="6">
-        <v>1</v>
-      </c>
-      <c r="AO252" s="6"/>
-      <c r="AP252" s="6"/>
+      <c r="AN252" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO252" s="7"/>
+      <c r="AP252" s="7"/>
       <c r="AQ252" s="1"/>
-      <c r="AR252" s="6">
+      <c r="AR252" s="7">
         <v>2</v>
       </c>
-      <c r="AS252" s="6"/>
-      <c r="AT252" s="6"/>
+      <c r="AS252" s="7"/>
+      <c r="AT252" s="7"/>
       <c r="AU252" s="1"/>
-      <c r="AV252" s="6">
+      <c r="AV252" s="7">
         <v>3</v>
       </c>
-      <c r="AW252" s="6"/>
-      <c r="AX252" s="6"/>
+      <c r="AW252" s="7"/>
+      <c r="AX252" s="7"/>
       <c r="AY252" s="1"/>
-      <c r="AZ252" s="6">
+      <c r="AZ252" s="7">
         <v>4</v>
       </c>
-      <c r="BA252" s="6"/>
-      <c r="BB252" s="6"/>
+      <c r="BA252" s="7"/>
+      <c r="BB252" s="7"/>
       <c r="BC252" s="1"/>
-      <c r="BD252" s="6">
+      <c r="BD252" s="7">
         <v>5</v>
       </c>
-      <c r="BE252" s="6"/>
-      <c r="BF252" s="6"/>
+      <c r="BE252" s="7"/>
+      <c r="BF252" s="7"/>
       <c r="BG252" s="1"/>
-      <c r="BH252" s="6">
+      <c r="BH252" s="7">
         <v>6</v>
       </c>
-      <c r="BI252" s="6"/>
-      <c r="BJ252" s="6"/>
+      <c r="BI252" s="7"/>
+      <c r="BJ252" s="7"/>
       <c r="BK252" s="1"/>
-      <c r="BL252" s="6">
+      <c r="BL252" s="7">
         <v>7</v>
       </c>
-      <c r="BM252" s="6"/>
-      <c r="BN252" s="6"/>
+      <c r="BM252" s="7"/>
+      <c r="BN252" s="7"/>
       <c r="BO252" s="1"/>
       <c r="BP252" s="1"/>
     </row>
@@ -13266,7 +13278,7 @@
       <c r="BM254" s="2"/>
       <c r="BN254" s="2"/>
       <c r="BO254" s="2"/>
-      <c r="BP254" s="6">
+      <c r="BP254" s="7">
         <v>7</v>
       </c>
     </row>
@@ -13300,7 +13312,7 @@
       <c r="BM255" s="2"/>
       <c r="BN255" s="2"/>
       <c r="BO255" s="2"/>
-      <c r="BP255" s="6"/>
+      <c r="BP255" s="7"/>
     </row>
     <row r="256" spans="39:77" x14ac:dyDescent="0.2">
       <c r="AM256" s="2"/>
@@ -13332,7 +13344,7 @@
       <c r="BM256" s="2"/>
       <c r="BN256" s="2"/>
       <c r="BO256" s="2"/>
-      <c r="BP256" s="6"/>
+      <c r="BP256" s="7"/>
       <c r="BQ256" s="3" t="s">
         <v>1</v>
       </c>
@@ -13423,7 +13435,7 @@
       <c r="BM258" s="2"/>
       <c r="BN258" s="2"/>
       <c r="BO258" s="2"/>
-      <c r="BP258" s="6">
+      <c r="BP258" s="7">
         <v>6</v>
       </c>
       <c r="BY258" t="s">
@@ -13464,7 +13476,7 @@
       <c r="BM259" s="2"/>
       <c r="BN259" s="2"/>
       <c r="BO259" s="2"/>
-      <c r="BP259" s="6"/>
+      <c r="BP259" s="7"/>
       <c r="BY259" t="s">
         <v>6</v>
       </c>
@@ -13499,7 +13511,7 @@
       <c r="BM260" s="2"/>
       <c r="BN260" s="2"/>
       <c r="BO260" s="2"/>
-      <c r="BP260" s="6"/>
+      <c r="BP260" s="7"/>
       <c r="BQ260" t="s">
         <v>1</v>
       </c>
@@ -13590,7 +13602,7 @@
       <c r="BM262" s="1"/>
       <c r="BN262" s="1"/>
       <c r="BO262" s="2"/>
-      <c r="BP262" s="6">
+      <c r="BP262" s="7">
         <v>5</v>
       </c>
       <c r="BY262" t="s">
@@ -13631,7 +13643,7 @@
       </c>
       <c r="BN263" s="1"/>
       <c r="BO263" s="2"/>
-      <c r="BP263" s="6"/>
+      <c r="BP263" s="7"/>
     </row>
     <row r="264" spans="39:77" x14ac:dyDescent="0.2">
       <c r="AM264" s="2"/>
@@ -13663,7 +13675,7 @@
       <c r="BM264" s="1"/>
       <c r="BN264" s="1"/>
       <c r="BO264" s="2"/>
-      <c r="BP264" s="6"/>
+      <c r="BP264" s="7"/>
       <c r="BQ264" s="3" t="s">
         <v>16</v>
       </c>
@@ -13748,7 +13760,7 @@
       <c r="BM266" s="1"/>
       <c r="BN266" s="1"/>
       <c r="BO266" s="2"/>
-      <c r="BP266" s="6">
+      <c r="BP266" s="7">
         <v>4</v>
       </c>
     </row>
@@ -13782,7 +13794,7 @@
       <c r="BM267" s="1"/>
       <c r="BN267" s="1"/>
       <c r="BO267" s="2"/>
-      <c r="BP267" s="6"/>
+      <c r="BP267" s="7"/>
     </row>
     <row r="268" spans="39:77" x14ac:dyDescent="0.2">
       <c r="AM268" s="2"/>
@@ -13814,7 +13826,7 @@
       <c r="BM268" s="1"/>
       <c r="BN268" s="1"/>
       <c r="BO268" s="2"/>
-      <c r="BP268" s="6"/>
+      <c r="BP268" s="7"/>
       <c r="BQ268" t="s">
         <v>1</v>
       </c>
@@ -13899,7 +13911,7 @@
       <c r="BM270" s="1"/>
       <c r="BN270" s="1"/>
       <c r="BO270" s="2"/>
-      <c r="BP270" s="6">
+      <c r="BP270" s="7">
         <v>3</v>
       </c>
     </row>
@@ -13937,7 +13949,7 @@
       </c>
       <c r="BN271" s="1"/>
       <c r="BO271" s="2"/>
-      <c r="BP271" s="6"/>
+      <c r="BP271" s="7"/>
     </row>
     <row r="272" spans="39:77" x14ac:dyDescent="0.2">
       <c r="AM272" s="2"/>
@@ -13969,7 +13981,7 @@
       <c r="BM272" s="1"/>
       <c r="BN272" s="1"/>
       <c r="BO272" s="2"/>
-      <c r="BP272" s="6"/>
+      <c r="BP272" s="7"/>
       <c r="BQ272" t="s">
         <v>16</v>
       </c>
@@ -14054,7 +14066,7 @@
       <c r="BM274" s="2"/>
       <c r="BN274" s="2"/>
       <c r="BO274" s="2"/>
-      <c r="BP274" s="6">
+      <c r="BP274" s="7">
         <v>2</v>
       </c>
     </row>
@@ -14088,7 +14100,7 @@
       <c r="BM275" s="2"/>
       <c r="BN275" s="2"/>
       <c r="BO275" s="2"/>
-      <c r="BP275" s="6"/>
+      <c r="BP275" s="7"/>
     </row>
     <row r="276" spans="39:77" x14ac:dyDescent="0.2">
       <c r="AM276" s="2"/>
@@ -14120,7 +14132,7 @@
       <c r="BM276" s="2"/>
       <c r="BN276" s="2"/>
       <c r="BO276" s="2"/>
-      <c r="BP276" s="6"/>
+      <c r="BP276" s="7"/>
       <c r="BQ276" t="s">
         <v>1</v>
       </c>
@@ -14205,7 +14217,7 @@
       <c r="BM278" s="2"/>
       <c r="BN278" s="2"/>
       <c r="BO278" s="2"/>
-      <c r="BP278" s="6">
+      <c r="BP278" s="7">
         <v>1</v>
       </c>
     </row>
@@ -14239,7 +14251,7 @@
       <c r="BM279" s="2"/>
       <c r="BN279" s="2"/>
       <c r="BO279" s="2"/>
-      <c r="BP279" s="6"/>
+      <c r="BP279" s="7"/>
     </row>
     <row r="280" spans="39:77" x14ac:dyDescent="0.2">
       <c r="AM280" s="2"/>
@@ -14271,7 +14283,7 @@
       <c r="BM280" s="2"/>
       <c r="BN280" s="2"/>
       <c r="BO280" s="2"/>
-      <c r="BP280" s="6"/>
+      <c r="BP280" s="7"/>
       <c r="BQ280" t="s">
         <v>1</v>
       </c>
@@ -14327,82 +14339,82 @@
       <c r="BP281" s="1"/>
     </row>
     <row r="282" spans="39:77" x14ac:dyDescent="0.2">
-      <c r="AM282" s="7" t="s">
+      <c r="AM282" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AN282" s="7"/>
-      <c r="AO282" s="7"/>
-      <c r="AP282" s="7"/>
-      <c r="AQ282" s="7"/>
-      <c r="AR282" s="7"/>
-      <c r="AS282" s="7"/>
-      <c r="AT282" s="7"/>
-      <c r="AU282" s="7"/>
-      <c r="AV282" s="7"/>
-      <c r="AW282" s="7"/>
-      <c r="AX282" s="7"/>
-      <c r="AY282" s="7"/>
-      <c r="AZ282" s="7"/>
-      <c r="BA282" s="7"/>
-      <c r="BB282" s="7"/>
-      <c r="BC282" s="7"/>
-      <c r="BD282" s="7"/>
-      <c r="BE282" s="7"/>
-      <c r="BF282" s="7"/>
-      <c r="BG282" s="7"/>
-      <c r="BH282" s="7"/>
-      <c r="BI282" s="7"/>
-      <c r="BJ282" s="7"/>
-      <c r="BK282" s="7"/>
-      <c r="BL282" s="7"/>
-      <c r="BM282" s="7"/>
-      <c r="BN282" s="7"/>
-      <c r="BO282" s="7"/>
+      <c r="AN282" s="8"/>
+      <c r="AO282" s="8"/>
+      <c r="AP282" s="8"/>
+      <c r="AQ282" s="8"/>
+      <c r="AR282" s="8"/>
+      <c r="AS282" s="8"/>
+      <c r="AT282" s="8"/>
+      <c r="AU282" s="8"/>
+      <c r="AV282" s="8"/>
+      <c r="AW282" s="8"/>
+      <c r="AX282" s="8"/>
+      <c r="AY282" s="8"/>
+      <c r="AZ282" s="8"/>
+      <c r="BA282" s="8"/>
+      <c r="BB282" s="8"/>
+      <c r="BC282" s="8"/>
+      <c r="BD282" s="8"/>
+      <c r="BE282" s="8"/>
+      <c r="BF282" s="8"/>
+      <c r="BG282" s="8"/>
+      <c r="BH282" s="8"/>
+      <c r="BI282" s="8"/>
+      <c r="BJ282" s="8"/>
+      <c r="BK282" s="8"/>
+      <c r="BL282" s="8"/>
+      <c r="BM282" s="8"/>
+      <c r="BN282" s="8"/>
+      <c r="BO282" s="8"/>
       <c r="BP282" s="1"/>
     </row>
     <row r="283" spans="39:77" x14ac:dyDescent="0.2">
       <c r="AM283" s="1"/>
-      <c r="AN283" s="6">
-        <v>1</v>
-      </c>
-      <c r="AO283" s="6"/>
-      <c r="AP283" s="6"/>
+      <c r="AN283" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO283" s="7"/>
+      <c r="AP283" s="7"/>
       <c r="AQ283" s="1"/>
-      <c r="AR283" s="6">
+      <c r="AR283" s="7">
         <v>2</v>
       </c>
-      <c r="AS283" s="6"/>
-      <c r="AT283" s="6"/>
+      <c r="AS283" s="7"/>
+      <c r="AT283" s="7"/>
       <c r="AU283" s="1"/>
-      <c r="AV283" s="6">
+      <c r="AV283" s="7">
         <v>3</v>
       </c>
-      <c r="AW283" s="6"/>
-      <c r="AX283" s="6"/>
+      <c r="AW283" s="7"/>
+      <c r="AX283" s="7"/>
       <c r="AY283" s="1"/>
-      <c r="AZ283" s="6">
+      <c r="AZ283" s="7">
         <v>4</v>
       </c>
-      <c r="BA283" s="6"/>
-      <c r="BB283" s="6"/>
+      <c r="BA283" s="7"/>
+      <c r="BB283" s="7"/>
       <c r="BC283" s="1"/>
-      <c r="BD283" s="6">
+      <c r="BD283" s="7">
         <v>5</v>
       </c>
-      <c r="BE283" s="6"/>
-      <c r="BF283" s="6"/>
+      <c r="BE283" s="7"/>
+      <c r="BF283" s="7"/>
       <c r="BG283" s="1"/>
-      <c r="BH283" s="6">
+      <c r="BH283" s="7">
         <v>6</v>
       </c>
-      <c r="BI283" s="6"/>
-      <c r="BJ283" s="6"/>
+      <c r="BI283" s="7"/>
+      <c r="BJ283" s="7"/>
       <c r="BK283" s="1"/>
-      <c r="BL283" s="6">
+      <c r="BL283" s="7">
         <v>7</v>
       </c>
-      <c r="BM283" s="6"/>
-      <c r="BN283" s="6"/>
+      <c r="BM283" s="7"/>
+      <c r="BN283" s="7"/>
       <c r="BO283" s="1"/>
       <c r="BP283" s="1"/>
     </row>
@@ -14468,7 +14480,7 @@
       <c r="BM285" s="2"/>
       <c r="BN285" s="2"/>
       <c r="BO285" s="2"/>
-      <c r="BP285" s="6">
+      <c r="BP285" s="7">
         <v>7</v>
       </c>
     </row>
@@ -14502,7 +14514,7 @@
       <c r="BM286" s="2"/>
       <c r="BN286" s="2"/>
       <c r="BO286" s="2"/>
-      <c r="BP286" s="6"/>
+      <c r="BP286" s="7"/>
     </row>
     <row r="287" spans="39:77" x14ac:dyDescent="0.2">
       <c r="AM287" s="2"/>
@@ -14534,7 +14546,7 @@
       <c r="BM287" s="2"/>
       <c r="BN287" s="2"/>
       <c r="BO287" s="2"/>
-      <c r="BP287" s="6"/>
+      <c r="BP287" s="7"/>
       <c r="BQ287" s="3" t="s">
         <v>1</v>
       </c>
@@ -14625,7 +14637,7 @@
       <c r="BM289" s="2"/>
       <c r="BN289" s="2"/>
       <c r="BO289" s="2"/>
-      <c r="BP289" s="6">
+      <c r="BP289" s="7">
         <v>6</v>
       </c>
       <c r="BY289" t="s">
@@ -14666,7 +14678,7 @@
       <c r="BM290" s="2"/>
       <c r="BN290" s="2"/>
       <c r="BO290" s="2"/>
-      <c r="BP290" s="6"/>
+      <c r="BP290" s="7"/>
       <c r="BY290" t="s">
         <v>6</v>
       </c>
@@ -14701,7 +14713,7 @@
       <c r="BM291" s="2"/>
       <c r="BN291" s="2"/>
       <c r="BO291" s="2"/>
-      <c r="BP291" s="6"/>
+      <c r="BP291" s="7"/>
       <c r="BQ291" s="3" t="s">
         <v>1</v>
       </c>
@@ -14792,7 +14804,7 @@
       <c r="BM293" s="2"/>
       <c r="BN293" s="2"/>
       <c r="BO293" s="2"/>
-      <c r="BP293" s="6">
+      <c r="BP293" s="7">
         <v>5</v>
       </c>
       <c r="BY293" t="s">
@@ -14829,7 +14841,7 @@
       <c r="BM294" s="2"/>
       <c r="BN294" s="2"/>
       <c r="BO294" s="2"/>
-      <c r="BP294" s="6"/>
+      <c r="BP294" s="7"/>
     </row>
     <row r="295" spans="39:77" x14ac:dyDescent="0.2">
       <c r="AM295" s="2"/>
@@ -14861,7 +14873,7 @@
       <c r="BM295" s="2"/>
       <c r="BN295" s="2"/>
       <c r="BO295" s="2"/>
-      <c r="BP295" s="6"/>
+      <c r="BP295" s="7"/>
       <c r="BQ295" s="3" t="s">
         <v>1</v>
       </c>
@@ -14946,7 +14958,7 @@
       <c r="BM297" s="2"/>
       <c r="BN297" s="2"/>
       <c r="BO297" s="2"/>
-      <c r="BP297" s="6">
+      <c r="BP297" s="7">
         <v>4</v>
       </c>
     </row>
@@ -14984,7 +14996,7 @@
       <c r="BM298" s="2"/>
       <c r="BN298" s="2"/>
       <c r="BO298" s="2"/>
-      <c r="BP298" s="6"/>
+      <c r="BP298" s="7"/>
     </row>
     <row r="299" spans="39:77" x14ac:dyDescent="0.2">
       <c r="AM299" s="2"/>
@@ -15016,7 +15028,7 @@
       <c r="BM299" s="2"/>
       <c r="BN299" s="2"/>
       <c r="BO299" s="2"/>
-      <c r="BP299" s="6"/>
+      <c r="BP299" s="7"/>
       <c r="BQ299" s="3" t="s">
         <v>1</v>
       </c>
@@ -15101,7 +15113,7 @@
       <c r="BM301" s="2"/>
       <c r="BN301" s="2"/>
       <c r="BO301" s="2"/>
-      <c r="BP301" s="6">
+      <c r="BP301" s="7">
         <v>3</v>
       </c>
     </row>
@@ -15139,7 +15151,7 @@
       <c r="BM302" s="2"/>
       <c r="BN302" s="2"/>
       <c r="BO302" s="2"/>
-      <c r="BP302" s="6"/>
+      <c r="BP302" s="7"/>
     </row>
     <row r="303" spans="39:77" x14ac:dyDescent="0.2">
       <c r="AM303" s="2"/>
@@ -15171,7 +15183,7 @@
       <c r="BM303" s="2"/>
       <c r="BN303" s="2"/>
       <c r="BO303" s="2"/>
-      <c r="BP303" s="6"/>
+      <c r="BP303" s="7"/>
       <c r="BQ303" s="3" t="s">
         <v>1</v>
       </c>
@@ -15256,7 +15268,7 @@
       <c r="BM305" s="2"/>
       <c r="BN305" s="2"/>
       <c r="BO305" s="2"/>
-      <c r="BP305" s="6">
+      <c r="BP305" s="7">
         <v>2</v>
       </c>
     </row>
@@ -15292,7 +15304,7 @@
       <c r="BM306" s="2"/>
       <c r="BN306" s="2"/>
       <c r="BO306" s="2"/>
-      <c r="BP306" s="6"/>
+      <c r="BP306" s="7"/>
     </row>
     <row r="307" spans="39:75" x14ac:dyDescent="0.2">
       <c r="AM307" s="2"/>
@@ -15324,7 +15336,7 @@
       <c r="BM307" s="2"/>
       <c r="BN307" s="2"/>
       <c r="BO307" s="2"/>
-      <c r="BP307" s="6"/>
+      <c r="BP307" s="7"/>
       <c r="BQ307" t="s">
         <v>1</v>
       </c>
@@ -15409,7 +15421,7 @@
       <c r="BM309" s="2"/>
       <c r="BN309" s="2"/>
       <c r="BO309" s="2"/>
-      <c r="BP309" s="6">
+      <c r="BP309" s="7">
         <v>1</v>
       </c>
     </row>
@@ -15443,7 +15455,7 @@
       <c r="BM310" s="2"/>
       <c r="BN310" s="2"/>
       <c r="BO310" s="2"/>
-      <c r="BP310" s="6"/>
+      <c r="BP310" s="7"/>
     </row>
     <row r="311" spans="39:75" x14ac:dyDescent="0.2">
       <c r="AM311" s="2"/>
@@ -15475,7 +15487,7 @@
       <c r="BM311" s="2"/>
       <c r="BN311" s="2"/>
       <c r="BO311" s="2"/>
-      <c r="BP311" s="6"/>
+      <c r="BP311" s="7"/>
       <c r="BQ311" t="s">
         <v>1</v>
       </c>
@@ -15754,10 +15766,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD210"/>
+  <dimension ref="A1:AF210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S188" sqref="S188"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2:AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15767,40 +15779,40 @@
     <col min="1016" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -15829,8 +15841,11 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -15857,8 +15872,11 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -15885,8 +15903,11 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -15917,7 +15938,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -15950,7 +15971,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -15969,13 +15990,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="K8" s="8">
+      <c r="K8" s="6">
         <v>7</v>
       </c>
       <c r="Y8" s="2"/>
@@ -15987,7 +16008,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -16006,7 +16027,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -16038,7 +16059,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -16060,7 +16081,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -16089,7 +16110,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -16108,7 +16129,7 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -16137,7 +16158,7 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -16159,7 +16180,7 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -16520,37 +16541,37 @@
       <c r="AC30" s="2"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
@@ -16733,6 +16754,9 @@
       <c r="S38" s="1">
         <v>4</v>
       </c>
+      <c r="W38" s="1">
+        <v>4</v>
+      </c>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
@@ -17094,7 +17118,7 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="W54" s="8">
+      <c r="W54" s="6">
         <v>7</v>
       </c>
       <c r="Y54" s="2"/>
@@ -17270,37 +17294,37 @@
       <c r="AC60" s="2"/>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-      <c r="S61" s="7"/>
-      <c r="T61" s="7"/>
-      <c r="U61" s="7"/>
-      <c r="V61" s="7"/>
-      <c r="W61" s="7"/>
-      <c r="X61" s="7"/>
-      <c r="Y61" s="7"/>
-      <c r="Z61" s="7"/>
-      <c r="AA61" s="7"/>
-      <c r="AB61" s="7"/>
-      <c r="AC61" s="7"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="8"/>
+      <c r="AC61" s="8"/>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
@@ -17479,7 +17503,7 @@
       <c r="C68" s="1">
         <v>2</v>
       </c>
-      <c r="K68" s="8">
+      <c r="K68" s="6">
         <v>6</v>
       </c>
       <c r="O68" s="1">
@@ -17689,6 +17713,9 @@
       <c r="O76" s="1">
         <v>7</v>
       </c>
+      <c r="S76" s="1">
+        <v>4</v>
+      </c>
       <c r="W76" s="1">
         <v>4</v>
       </c>
@@ -18020,37 +18047,37 @@
       <c r="AC90" s="2"/>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="7"/>
-      <c r="O91" s="7"/>
-      <c r="P91" s="7"/>
-      <c r="Q91" s="7"/>
-      <c r="R91" s="7"/>
-      <c r="S91" s="7"/>
-      <c r="T91" s="7"/>
-      <c r="U91" s="7"/>
-      <c r="V91" s="7"/>
-      <c r="W91" s="7"/>
-      <c r="X91" s="7"/>
-      <c r="Y91" s="7"/>
-      <c r="Z91" s="7"/>
-      <c r="AA91" s="7"/>
-      <c r="AB91" s="7"/>
-      <c r="AC91" s="7"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="8"/>
+      <c r="P91" s="8"/>
+      <c r="Q91" s="8"/>
+      <c r="R91" s="8"/>
+      <c r="S91" s="8"/>
+      <c r="T91" s="8"/>
+      <c r="U91" s="8"/>
+      <c r="V91" s="8"/>
+      <c r="W91" s="8"/>
+      <c r="X91" s="8"/>
+      <c r="Y91" s="8"/>
+      <c r="Z91" s="8"/>
+      <c r="AA91" s="8"/>
+      <c r="AB91" s="8"/>
+      <c r="AC91" s="8"/>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
@@ -18230,6 +18257,9 @@
       <c r="G98" s="1">
         <v>4</v>
       </c>
+      <c r="K98" s="1">
+        <v>7</v>
+      </c>
       <c r="O98" s="1">
         <v>4</v>
       </c>
@@ -18768,37 +18798,37 @@
       <c r="AC120" s="2"/>
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="7"/>
-      <c r="L121" s="7"/>
-      <c r="M121" s="7"/>
-      <c r="N121" s="7"/>
-      <c r="O121" s="7"/>
-      <c r="P121" s="7"/>
-      <c r="Q121" s="7"/>
-      <c r="R121" s="7"/>
-      <c r="S121" s="7"/>
-      <c r="T121" s="7"/>
-      <c r="U121" s="7"/>
-      <c r="V121" s="7"/>
-      <c r="W121" s="7"/>
-      <c r="X121" s="7"/>
-      <c r="Y121" s="7"/>
-      <c r="Z121" s="7"/>
-      <c r="AA121" s="7"/>
-      <c r="AB121" s="7"/>
-      <c r="AC121" s="7"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="8"/>
+      <c r="N121" s="8"/>
+      <c r="O121" s="8"/>
+      <c r="P121" s="8"/>
+      <c r="Q121" s="8"/>
+      <c r="R121" s="8"/>
+      <c r="S121" s="8"/>
+      <c r="T121" s="8"/>
+      <c r="U121" s="8"/>
+      <c r="V121" s="8"/>
+      <c r="W121" s="8"/>
+      <c r="X121" s="8"/>
+      <c r="Y121" s="8"/>
+      <c r="Z121" s="8"/>
+      <c r="AA121" s="8"/>
+      <c r="AB121" s="8"/>
+      <c r="AC121" s="8"/>
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
@@ -18989,8 +19019,11 @@
       <c r="O128" s="1">
         <v>4</v>
       </c>
-      <c r="S128" s="8">
+      <c r="S128" s="6">
         <v>4</v>
+      </c>
+      <c r="W128" s="1">
+        <v>7</v>
       </c>
       <c r="AA128" s="1">
         <v>7</v>
@@ -19357,7 +19390,7 @@
     <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="C144" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W144" s="1">
         <v>1</v>
@@ -19529,37 +19562,37 @@
       <c r="AC150" s="2"/>
     </row>
     <row r="151" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A151" s="7" t="s">
+      <c r="A151" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B151" s="7"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="7"/>
-      <c r="I151" s="7"/>
-      <c r="J151" s="7"/>
-      <c r="K151" s="7"/>
-      <c r="L151" s="7"/>
-      <c r="M151" s="7"/>
-      <c r="N151" s="7"/>
-      <c r="O151" s="7"/>
-      <c r="P151" s="7"/>
-      <c r="Q151" s="7"/>
-      <c r="R151" s="7"/>
-      <c r="S151" s="7"/>
-      <c r="T151" s="7"/>
-      <c r="U151" s="7"/>
-      <c r="V151" s="7"/>
-      <c r="W151" s="7"/>
-      <c r="X151" s="7"/>
-      <c r="Y151" s="7"/>
-      <c r="Z151" s="7"/>
-      <c r="AA151" s="7"/>
-      <c r="AB151" s="7"/>
-      <c r="AC151" s="7"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
+      <c r="J151" s="8"/>
+      <c r="K151" s="8"/>
+      <c r="L151" s="8"/>
+      <c r="M151" s="8"/>
+      <c r="N151" s="8"/>
+      <c r="O151" s="8"/>
+      <c r="P151" s="8"/>
+      <c r="Q151" s="8"/>
+      <c r="R151" s="8"/>
+      <c r="S151" s="8"/>
+      <c r="T151" s="8"/>
+      <c r="U151" s="8"/>
+      <c r="V151" s="8"/>
+      <c r="W151" s="8"/>
+      <c r="X151" s="8"/>
+      <c r="Y151" s="8"/>
+      <c r="Z151" s="8"/>
+      <c r="AA151" s="8"/>
+      <c r="AB151" s="8"/>
+      <c r="AC151" s="8"/>
     </row>
     <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
@@ -19739,10 +19772,10 @@
       <c r="K158" s="1">
         <v>4</v>
       </c>
-      <c r="O158" s="1">
+      <c r="O158" s="6">
         <v>4</v>
       </c>
-      <c r="S158" s="8">
+      <c r="S158" s="6">
         <v>4</v>
       </c>
       <c r="W158" s="1">
@@ -20014,7 +20047,7 @@
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
-      <c r="O170" s="8">
+      <c r="O170" s="6">
         <v>6</v>
       </c>
       <c r="Q170" s="2"/>
@@ -20093,6 +20126,9 @@
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
+      <c r="G174" s="9">
+        <v>6</v>
+      </c>
       <c r="W174" s="1">
         <v>1</v>
       </c>
@@ -20266,37 +20302,37 @@
       <c r="AC180" s="2"/>
     </row>
     <row r="181" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A181" s="7" t="s">
+      <c r="A181" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B181" s="7"/>
-      <c r="C181" s="7"/>
-      <c r="D181" s="7"/>
-      <c r="E181" s="7"/>
-      <c r="F181" s="7"/>
-      <c r="G181" s="7"/>
-      <c r="H181" s="7"/>
-      <c r="I181" s="7"/>
-      <c r="J181" s="7"/>
-      <c r="K181" s="7"/>
-      <c r="L181" s="7"/>
-      <c r="M181" s="7"/>
-      <c r="N181" s="7"/>
-      <c r="O181" s="7"/>
-      <c r="P181" s="7"/>
-      <c r="Q181" s="7"/>
-      <c r="R181" s="7"/>
-      <c r="S181" s="7"/>
-      <c r="T181" s="7"/>
-      <c r="U181" s="7"/>
-      <c r="V181" s="7"/>
-      <c r="W181" s="7"/>
-      <c r="X181" s="7"/>
-      <c r="Y181" s="7"/>
-      <c r="Z181" s="7"/>
-      <c r="AA181" s="7"/>
-      <c r="AB181" s="7"/>
-      <c r="AC181" s="7"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="8"/>
+      <c r="H181" s="8"/>
+      <c r="I181" s="8"/>
+      <c r="J181" s="8"/>
+      <c r="K181" s="8"/>
+      <c r="L181" s="8"/>
+      <c r="M181" s="8"/>
+      <c r="N181" s="8"/>
+      <c r="O181" s="8"/>
+      <c r="P181" s="8"/>
+      <c r="Q181" s="8"/>
+      <c r="R181" s="8"/>
+      <c r="S181" s="8"/>
+      <c r="T181" s="8"/>
+      <c r="U181" s="8"/>
+      <c r="V181" s="8"/>
+      <c r="W181" s="8"/>
+      <c r="X181" s="8"/>
+      <c r="Y181" s="8"/>
+      <c r="Z181" s="8"/>
+      <c r="AA181" s="8"/>
+      <c r="AB181" s="8"/>
+      <c r="AC181" s="8"/>
     </row>
     <row r="182" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
